--- a/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.671158064442252</v>
+        <v>7.671158064442173</v>
       </c>
       <c r="D2">
-        <v>3.462398298625848</v>
+        <v>3.462398298625923</v>
       </c>
       <c r="E2">
-        <v>8.939197128079854</v>
+        <v>8.939197128079808</v>
       </c>
       <c r="F2">
-        <v>38.31814977396004</v>
+        <v>38.31814977395992</v>
       </c>
       <c r="G2">
-        <v>29.87085504553241</v>
+        <v>29.87085504553232</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>63.32701223852665</v>
+        <v>63.32701223852648</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>38.51630150627579</v>
+        <v>38.51630150627569</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.069881486862687</v>
+        <v>7.069881486862638</v>
       </c>
       <c r="D3">
-        <v>2.985216065539105</v>
+        <v>2.985216065539161</v>
       </c>
       <c r="E3">
-        <v>8.553269604090046</v>
+        <v>8.55326960409012</v>
       </c>
       <c r="F3">
-        <v>34.88071107142365</v>
+        <v>34.8807110714239</v>
       </c>
       <c r="G3">
-        <v>27.09234522823762</v>
+        <v>27.09234522823783</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>58.68071368096975</v>
+        <v>58.68071368096982</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>35.65408533707121</v>
+        <v>35.65408533707126</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.689724730501971</v>
+        <v>6.689724730502018</v>
       </c>
       <c r="D4">
-        <v>2.697949152671727</v>
+        <v>2.697949152671788</v>
       </c>
       <c r="E4">
-        <v>8.315191997913738</v>
+        <v>8.315191997913745</v>
       </c>
       <c r="F4">
-        <v>32.78967893074869</v>
+        <v>32.78967893074881</v>
       </c>
       <c r="G4">
-        <v>25.4015262679926</v>
+        <v>25.40152626799271</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>55.71378145391513</v>
+        <v>55.71378145391522</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>33.83172886961209</v>
+        <v>33.83172886961216</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.53173158682479</v>
+        <v>6.531731586824876</v>
       </c>
       <c r="D5">
-        <v>2.581877702281387</v>
+        <v>2.581877702281322</v>
       </c>
       <c r="E5">
-        <v>8.217938085100641</v>
+        <v>8.217938085100606</v>
       </c>
       <c r="F5">
-        <v>31.94061024170978</v>
+        <v>31.94061024170976</v>
       </c>
       <c r="G5">
-        <v>24.71469301064369</v>
+        <v>24.71469301064365</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>54.47420159045351</v>
+        <v>54.47420159045344</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>33.07152489442405</v>
+        <v>33.07152489442401</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.50530287755125</v>
+        <v>6.50530287755124</v>
       </c>
       <c r="D6">
-        <v>2.562653103662684</v>
+        <v>2.562653103662624</v>
       </c>
       <c r="E6">
-        <v>8.201776943950467</v>
+        <v>8.201776943950511</v>
       </c>
       <c r="F6">
-        <v>31.79976541858161</v>
+        <v>31.79976541858166</v>
       </c>
       <c r="G6">
-        <v>24.60074027328507</v>
+        <v>24.60074027328511</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>54.26647792833745</v>
+        <v>54.26647792833751</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>32.94419925089741</v>
+        <v>32.94419925089743</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.687606815689525</v>
+        <v>6.687606815689446</v>
       </c>
       <c r="D7">
-        <v>2.696380264685059</v>
+        <v>2.696380264685311</v>
       </c>
       <c r="E7">
-        <v>8.313881264411698</v>
+        <v>8.313881264411775</v>
       </c>
       <c r="F7">
-        <v>32.7782177349113</v>
+        <v>32.77821773491147</v>
       </c>
       <c r="G7">
-        <v>25.39225626967766</v>
+        <v>25.39225626967785</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>55.69718988827788</v>
+        <v>55.69718988827792</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>33.82154916983243</v>
+        <v>33.82154916983245</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.465904995647249</v>
+        <v>7.46590499564725</v>
       </c>
       <c r="D8">
-        <v>3.296370635093779</v>
+        <v>3.296370635093716</v>
       </c>
       <c r="E8">
-        <v>8.80637642529808</v>
+        <v>8.806376425298053</v>
       </c>
       <c r="F8">
-        <v>37.12749373195942</v>
+        <v>37.12749373195939</v>
       </c>
       <c r="G8">
-        <v>28.90849651699027</v>
+        <v>28.90849651699024</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>61.74743588975049</v>
+        <v>61.74743588975039</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>37.54206583372432</v>
+        <v>37.54206583372426</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.923357650159998</v>
+        <v>8.923357650160012</v>
       </c>
       <c r="D9">
-        <v>4.546177052055535</v>
+        <v>4.546177052055517</v>
       </c>
       <c r="E9">
         <v>10.04111013742066</v>
       </c>
       <c r="F9">
-        <v>45.94339520839908</v>
+        <v>45.94339520839887</v>
       </c>
       <c r="G9">
-        <v>36.03630548310123</v>
+        <v>36.03630548310105</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>72.81122574041657</v>
+        <v>72.81122574041649</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>44.39396572492198</v>
+        <v>44.39396572492193</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.987309987480661</v>
+        <v>9.987309987480529</v>
       </c>
       <c r="D10">
-        <v>5.565265385798034</v>
+        <v>5.565265385797981</v>
       </c>
       <c r="E10">
-        <v>11.02730145660355</v>
+        <v>11.02730145660357</v>
       </c>
       <c r="F10">
-        <v>52.88167211302597</v>
+        <v>52.88167211302536</v>
       </c>
       <c r="G10">
-        <v>41.65475381909163</v>
+        <v>41.65475381909114</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>80.64948722262805</v>
+        <v>80.64948722262777</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>49.29328829932489</v>
+        <v>49.29328829932465</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.4823655758854</v>
+        <v>10.48236557588556</v>
       </c>
       <c r="D11">
-        <v>6.071591826098746</v>
+        <v>6.07159182609876</v>
       </c>
       <c r="E11">
-        <v>11.46603780885621</v>
+        <v>11.46603780885617</v>
       </c>
       <c r="F11">
-        <v>56.24901659511023</v>
+        <v>56.2490165951106</v>
       </c>
       <c r="G11">
-        <v>44.38567973862255</v>
+        <v>44.38567973862283</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>84.22168975228215</v>
+        <v>84.22168975228223</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>51.54089774897363</v>
+        <v>51.54089774897365</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.67309887955989</v>
+        <v>10.67309887956002</v>
       </c>
       <c r="D12">
-        <v>6.272310726927643</v>
+        <v>6.272310726927775</v>
       </c>
       <c r="E12">
-        <v>11.63135105668651</v>
+        <v>11.63135105668649</v>
       </c>
       <c r="F12">
-        <v>57.56982843081892</v>
+        <v>57.56982843081928</v>
       </c>
       <c r="G12">
-        <v>45.45768910724025</v>
+        <v>45.45768910724062</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>85.58452910630288</v>
+        <v>85.58452910630314</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>52.40112280613413</v>
+        <v>52.40112280613424</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -836,16 +836,16 @@
         <v>10.63184006968674</v>
       </c>
       <c r="D13">
-        <v>6.228621898642111</v>
+        <v>6.228621898641859</v>
       </c>
       <c r="E13">
-        <v>11.59577249068779</v>
+        <v>11.59577249068774</v>
       </c>
       <c r="F13">
-        <v>57.28300726428246</v>
+        <v>57.2830072642824</v>
       </c>
       <c r="G13">
-        <v>45.22485578862135</v>
+        <v>45.22485578862124</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>85.2903724061684</v>
+        <v>85.29037240616823</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>52.21531737379803</v>
+        <v>52.21531737379793</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.49797932785436</v>
+        <v>10.4979793278544</v>
       </c>
       <c r="D14">
-        <v>6.087903696978655</v>
+        <v>6.087903696978598</v>
       </c>
       <c r="E14">
-        <v>11.47965051236689</v>
+        <v>11.47965051236685</v>
       </c>
       <c r="F14">
-        <v>56.35664974007866</v>
+        <v>56.35664974007907</v>
       </c>
       <c r="G14">
-        <v>44.47302003700118</v>
+        <v>44.4730200370015</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>84.33354016437498</v>
+        <v>84.33354016437511</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>51.61143891068159</v>
+        <v>51.61143891068168</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.4164745364457</v>
+        <v>10.41647453644568</v>
       </c>
       <c r="D15">
-        <v>6.002987653348981</v>
+        <v>6.002987653349046</v>
       </c>
       <c r="E15">
-        <v>11.408436547879</v>
+        <v>11.40843654787898</v>
       </c>
       <c r="F15">
-        <v>55.79576091730456</v>
+        <v>55.79576091730423</v>
       </c>
       <c r="G15">
-        <v>44.01791401526628</v>
+        <v>44.01791401526604</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>83.74911697506441</v>
+        <v>83.74911697506421</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>51.24297251415574</v>
+        <v>51.24297251415564</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.955305974365432</v>
+        <v>9.955305974365478</v>
       </c>
       <c r="D16">
-        <v>5.533249233895829</v>
+        <v>5.533249233896025</v>
       </c>
       <c r="E16">
-        <v>10.99847582999361</v>
+        <v>10.99847582999359</v>
       </c>
       <c r="F16">
-        <v>52.66700561355563</v>
+        <v>52.66700561355593</v>
       </c>
       <c r="G16">
-        <v>41.48075735243704</v>
+        <v>41.48075735243732</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>80.41686181186243</v>
+        <v>80.41686181186255</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>49.14726458906875</v>
+        <v>49.14726458906881</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.67620095411128</v>
+        <v>9.676200954111284</v>
       </c>
       <c r="D17">
-        <v>5.257666880817932</v>
+        <v>5.257666880817869</v>
       </c>
       <c r="E17">
-        <v>10.74480272546647</v>
+        <v>10.74480272546648</v>
       </c>
       <c r="F17">
-        <v>50.81050312193616</v>
+        <v>50.81050312193636</v>
       </c>
       <c r="G17">
-        <v>39.97644962897805</v>
+        <v>39.97644962897819</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>78.37966798987701</v>
+        <v>78.37966798987711</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>47.87017576780303</v>
+        <v>47.87017576780312</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.516576292164071</v>
+        <v>9.516576292164073</v>
       </c>
       <c r="D18">
-        <v>5.102957538153161</v>
+        <v>5.102957538153227</v>
       </c>
       <c r="E18">
-        <v>10.59792050413032</v>
+        <v>10.59792050413034</v>
       </c>
       <c r="F18">
-        <v>49.76134358779124</v>
+        <v>49.7613435877912</v>
       </c>
       <c r="G18">
-        <v>39.12668225880654</v>
+        <v>39.12668225880655</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>77.20782482769741</v>
+        <v>77.20782482769752</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>47.13690465597585</v>
+        <v>47.1369046559759</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,16 +1064,16 @@
         <v>9.462646574811982</v>
       </c>
       <c r="D19">
-        <v>5.051161259766087</v>
+        <v>5.051161259766084</v>
       </c>
       <c r="E19">
-        <v>10.54800639254657</v>
+        <v>10.54800639254656</v>
       </c>
       <c r="F19">
-        <v>49.4089611723697</v>
+        <v>49.40896117236973</v>
       </c>
       <c r="G19">
-        <v>38.84132537957147</v>
+        <v>38.84132537957146</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>76.81082247788257</v>
+        <v>76.81082247788258</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>46.88869913620806</v>
+        <v>46.88869913620807</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.705808256645179</v>
+        <v>9.705808256645195</v>
       </c>
       <c r="D20">
-        <v>5.286593473874893</v>
+        <v>5.286593473874835</v>
       </c>
       <c r="E20">
-        <v>10.77190408780302</v>
+        <v>10.77190408780303</v>
       </c>
       <c r="F20">
-        <v>51.00611185400048</v>
+        <v>51.00611185400075</v>
       </c>
       <c r="G20">
-        <v>40.13491098944791</v>
+        <v>40.13491098944813</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>78.59648744585203</v>
+        <v>78.59648744585212</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>48.00595444883007</v>
+        <v>48.00595444883011</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.5371913842869</v>
+        <v>10.53719138428697</v>
       </c>
       <c r="D21">
-        <v>6.128962513808083</v>
+        <v>6.128962513808016</v>
       </c>
       <c r="E21">
-        <v>11.51377482393868</v>
+        <v>11.51377482393867</v>
       </c>
       <c r="F21">
         <v>56.62734309132546</v>
       </c>
       <c r="G21">
-        <v>44.6926915820001</v>
+        <v>44.69269158200004</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>84.61421515021922</v>
+        <v>84.61421515021914</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>51.78849929598469</v>
+        <v>51.78849929598462</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.10107800389571</v>
+        <v>11.10107800389576</v>
       </c>
       <c r="D22">
-        <v>6.734420650370019</v>
+        <v>6.73442065036989</v>
       </c>
       <c r="E22">
-        <v>11.99429691376536</v>
+        <v>11.9942969137654</v>
       </c>
       <c r="F22">
-        <v>60.58121142502065</v>
+        <v>60.58121142502034</v>
       </c>
       <c r="G22">
-        <v>47.90365143446964</v>
+        <v>47.90365143446936</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>88.61423896408357</v>
+        <v>88.61423896408343</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>54.31932250061303</v>
+        <v>54.31932250061298</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.79744396428623</v>
+        <v>10.7974439642862</v>
       </c>
       <c r="D23">
-        <v>6.40488755753877</v>
+        <v>6.404887557538647</v>
       </c>
       <c r="E23">
         <v>11.73796087013019</v>
       </c>
       <c r="F23">
-        <v>58.43794791048631</v>
+        <v>58.43794791048526</v>
       </c>
       <c r="G23">
-        <v>46.1625442016225</v>
+        <v>46.16254420162168</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>86.46886433536264</v>
+        <v>86.46886433536218</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>52.96016980959979</v>
+        <v>52.96016980959949</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.692420303420404</v>
+        <v>9.692420303420365</v>
       </c>
       <c r="D24">
-        <v>5.273504345769309</v>
+        <v>5.273504345769441</v>
       </c>
       <c r="E24">
         <v>10.75965484923536</v>
       </c>
       <c r="F24">
-        <v>50.9176215915195</v>
+        <v>50.91762159151985</v>
       </c>
       <c r="G24">
-        <v>40.06322449890645</v>
+        <v>40.06322449890677</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>78.49846596764621</v>
+        <v>78.4984659676464</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>47.94456640051916</v>
+        <v>47.94456640051926</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.53345383651121</v>
+        <v>8.533453836511088</v>
       </c>
       <c r="D25">
-        <v>4.195553289970619</v>
+        <v>4.195553289970606</v>
       </c>
       <c r="E25">
-        <v>9.666222289037812</v>
+        <v>9.666222289037837</v>
       </c>
       <c r="F25">
-        <v>43.50463702120776</v>
+        <v>43.50463702120748</v>
       </c>
       <c r="G25">
-        <v>34.06368369132839</v>
+        <v>34.06368369132814</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>69.88691438405516</v>
+        <v>69.88691438405506</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>42.5762552220821</v>
+        <v>42.576255222082</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.671158064442173</v>
+        <v>7.671158064442252</v>
       </c>
       <c r="D2">
-        <v>3.462398298625923</v>
+        <v>3.462398298625848</v>
       </c>
       <c r="E2">
-        <v>8.939197128079808</v>
+        <v>8.939197128079854</v>
       </c>
       <c r="F2">
-        <v>38.31814977395992</v>
+        <v>38.31814977396004</v>
       </c>
       <c r="G2">
-        <v>29.87085504553232</v>
+        <v>29.87085504553241</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>63.32701223852648</v>
+        <v>63.32701223852665</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>38.51630150627569</v>
+        <v>38.51630150627579</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.069881486862638</v>
+        <v>7.069881486862687</v>
       </c>
       <c r="D3">
-        <v>2.985216065539161</v>
+        <v>2.985216065539105</v>
       </c>
       <c r="E3">
-        <v>8.55326960409012</v>
+        <v>8.553269604090046</v>
       </c>
       <c r="F3">
-        <v>34.8807110714239</v>
+        <v>34.88071107142365</v>
       </c>
       <c r="G3">
-        <v>27.09234522823783</v>
+        <v>27.09234522823762</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>58.68071368096982</v>
+        <v>58.68071368096975</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>35.65408533707126</v>
+        <v>35.65408533707121</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.689724730502018</v>
+        <v>6.689724730501971</v>
       </c>
       <c r="D4">
-        <v>2.697949152671788</v>
+        <v>2.697949152671727</v>
       </c>
       <c r="E4">
-        <v>8.315191997913745</v>
+        <v>8.315191997913738</v>
       </c>
       <c r="F4">
-        <v>32.78967893074881</v>
+        <v>32.78967893074869</v>
       </c>
       <c r="G4">
-        <v>25.40152626799271</v>
+        <v>25.4015262679926</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>55.71378145391522</v>
+        <v>55.71378145391513</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>33.83172886961216</v>
+        <v>33.83172886961209</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.531731586824876</v>
+        <v>6.53173158682479</v>
       </c>
       <c r="D5">
-        <v>2.581877702281322</v>
+        <v>2.581877702281387</v>
       </c>
       <c r="E5">
-        <v>8.217938085100606</v>
+        <v>8.217938085100641</v>
       </c>
       <c r="F5">
-        <v>31.94061024170976</v>
+        <v>31.94061024170978</v>
       </c>
       <c r="G5">
-        <v>24.71469301064365</v>
+        <v>24.71469301064369</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>54.47420159045344</v>
+        <v>54.47420159045351</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>33.07152489442401</v>
+        <v>33.07152489442405</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.50530287755124</v>
+        <v>6.50530287755125</v>
       </c>
       <c r="D6">
-        <v>2.562653103662624</v>
+        <v>2.562653103662684</v>
       </c>
       <c r="E6">
-        <v>8.201776943950511</v>
+        <v>8.201776943950467</v>
       </c>
       <c r="F6">
-        <v>31.79976541858166</v>
+        <v>31.79976541858161</v>
       </c>
       <c r="G6">
-        <v>24.60074027328511</v>
+        <v>24.60074027328507</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>54.26647792833751</v>
+        <v>54.26647792833745</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>32.94419925089743</v>
+        <v>32.94419925089741</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.687606815689446</v>
+        <v>6.687606815689525</v>
       </c>
       <c r="D7">
-        <v>2.696380264685311</v>
+        <v>2.696380264685059</v>
       </c>
       <c r="E7">
-        <v>8.313881264411775</v>
+        <v>8.313881264411698</v>
       </c>
       <c r="F7">
-        <v>32.77821773491147</v>
+        <v>32.7782177349113</v>
       </c>
       <c r="G7">
-        <v>25.39225626967785</v>
+        <v>25.39225626967766</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>55.69718988827792</v>
+        <v>55.69718988827788</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>33.82154916983245</v>
+        <v>33.82154916983243</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.46590499564725</v>
+        <v>7.465904995647249</v>
       </c>
       <c r="D8">
-        <v>3.296370635093716</v>
+        <v>3.296370635093779</v>
       </c>
       <c r="E8">
-        <v>8.806376425298053</v>
+        <v>8.80637642529808</v>
       </c>
       <c r="F8">
-        <v>37.12749373195939</v>
+        <v>37.12749373195942</v>
       </c>
       <c r="G8">
-        <v>28.90849651699024</v>
+        <v>28.90849651699027</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>61.74743588975039</v>
+        <v>61.74743588975049</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>37.54206583372426</v>
+        <v>37.54206583372432</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.923357650160012</v>
+        <v>8.923357650159998</v>
       </c>
       <c r="D9">
-        <v>4.546177052055517</v>
+        <v>4.546177052055535</v>
       </c>
       <c r="E9">
         <v>10.04111013742066</v>
       </c>
       <c r="F9">
-        <v>45.94339520839887</v>
+        <v>45.94339520839908</v>
       </c>
       <c r="G9">
-        <v>36.03630548310105</v>
+        <v>36.03630548310123</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>72.81122574041649</v>
+        <v>72.81122574041657</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>44.39396572492193</v>
+        <v>44.39396572492198</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.987309987480529</v>
+        <v>9.987309987480661</v>
       </c>
       <c r="D10">
-        <v>5.565265385797981</v>
+        <v>5.565265385798034</v>
       </c>
       <c r="E10">
-        <v>11.02730145660357</v>
+        <v>11.02730145660355</v>
       </c>
       <c r="F10">
-        <v>52.88167211302536</v>
+        <v>52.88167211302597</v>
       </c>
       <c r="G10">
-        <v>41.65475381909114</v>
+        <v>41.65475381909163</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>80.64948722262777</v>
+        <v>80.64948722262805</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>49.29328829932465</v>
+        <v>49.29328829932489</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.48236557588556</v>
+        <v>10.4823655758854</v>
       </c>
       <c r="D11">
-        <v>6.07159182609876</v>
+        <v>6.071591826098746</v>
       </c>
       <c r="E11">
-        <v>11.46603780885617</v>
+        <v>11.46603780885621</v>
       </c>
       <c r="F11">
-        <v>56.2490165951106</v>
+        <v>56.24901659511023</v>
       </c>
       <c r="G11">
-        <v>44.38567973862283</v>
+        <v>44.38567973862255</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>84.22168975228223</v>
+        <v>84.22168975228215</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>51.54089774897365</v>
+        <v>51.54089774897363</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.67309887956002</v>
+        <v>10.67309887955989</v>
       </c>
       <c r="D12">
-        <v>6.272310726927775</v>
+        <v>6.272310726927643</v>
       </c>
       <c r="E12">
-        <v>11.63135105668649</v>
+        <v>11.63135105668651</v>
       </c>
       <c r="F12">
-        <v>57.56982843081928</v>
+        <v>57.56982843081892</v>
       </c>
       <c r="G12">
-        <v>45.45768910724062</v>
+        <v>45.45768910724025</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>85.58452910630314</v>
+        <v>85.58452910630288</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>52.40112280613424</v>
+        <v>52.40112280613413</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -836,16 +836,16 @@
         <v>10.63184006968674</v>
       </c>
       <c r="D13">
-        <v>6.228621898641859</v>
+        <v>6.228621898642111</v>
       </c>
       <c r="E13">
-        <v>11.59577249068774</v>
+        <v>11.59577249068779</v>
       </c>
       <c r="F13">
-        <v>57.2830072642824</v>
+        <v>57.28300726428246</v>
       </c>
       <c r="G13">
-        <v>45.22485578862124</v>
+        <v>45.22485578862135</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>85.29037240616823</v>
+        <v>85.2903724061684</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>52.21531737379793</v>
+        <v>52.21531737379803</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.4979793278544</v>
+        <v>10.49797932785436</v>
       </c>
       <c r="D14">
-        <v>6.087903696978598</v>
+        <v>6.087903696978655</v>
       </c>
       <c r="E14">
-        <v>11.47965051236685</v>
+        <v>11.47965051236689</v>
       </c>
       <c r="F14">
-        <v>56.35664974007907</v>
+        <v>56.35664974007866</v>
       </c>
       <c r="G14">
-        <v>44.4730200370015</v>
+        <v>44.47302003700118</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>84.33354016437511</v>
+        <v>84.33354016437498</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>51.61143891068168</v>
+        <v>51.61143891068159</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.41647453644568</v>
+        <v>10.4164745364457</v>
       </c>
       <c r="D15">
-        <v>6.002987653349046</v>
+        <v>6.002987653348981</v>
       </c>
       <c r="E15">
-        <v>11.40843654787898</v>
+        <v>11.408436547879</v>
       </c>
       <c r="F15">
-        <v>55.79576091730423</v>
+        <v>55.79576091730456</v>
       </c>
       <c r="G15">
-        <v>44.01791401526604</v>
+        <v>44.01791401526628</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>83.74911697506421</v>
+        <v>83.74911697506441</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>51.24297251415564</v>
+        <v>51.24297251415574</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.955305974365478</v>
+        <v>9.955305974365432</v>
       </c>
       <c r="D16">
-        <v>5.533249233896025</v>
+        <v>5.533249233895829</v>
       </c>
       <c r="E16">
-        <v>10.99847582999359</v>
+        <v>10.99847582999361</v>
       </c>
       <c r="F16">
-        <v>52.66700561355593</v>
+        <v>52.66700561355563</v>
       </c>
       <c r="G16">
-        <v>41.48075735243732</v>
+        <v>41.48075735243704</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>80.41686181186255</v>
+        <v>80.41686181186243</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>49.14726458906881</v>
+        <v>49.14726458906875</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.676200954111284</v>
+        <v>9.67620095411128</v>
       </c>
       <c r="D17">
-        <v>5.257666880817869</v>
+        <v>5.257666880817932</v>
       </c>
       <c r="E17">
-        <v>10.74480272546648</v>
+        <v>10.74480272546647</v>
       </c>
       <c r="F17">
-        <v>50.81050312193636</v>
+        <v>50.81050312193616</v>
       </c>
       <c r="G17">
-        <v>39.97644962897819</v>
+        <v>39.97644962897805</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>78.37966798987711</v>
+        <v>78.37966798987701</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>47.87017576780312</v>
+        <v>47.87017576780303</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.516576292164073</v>
+        <v>9.516576292164071</v>
       </c>
       <c r="D18">
-        <v>5.102957538153227</v>
+        <v>5.102957538153161</v>
       </c>
       <c r="E18">
-        <v>10.59792050413034</v>
+        <v>10.59792050413032</v>
       </c>
       <c r="F18">
-        <v>49.7613435877912</v>
+        <v>49.76134358779124</v>
       </c>
       <c r="G18">
-        <v>39.12668225880655</v>
+        <v>39.12668225880654</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>77.20782482769752</v>
+        <v>77.20782482769741</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>47.1369046559759</v>
+        <v>47.13690465597585</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,16 +1064,16 @@
         <v>9.462646574811982</v>
       </c>
       <c r="D19">
-        <v>5.051161259766084</v>
+        <v>5.051161259766087</v>
       </c>
       <c r="E19">
-        <v>10.54800639254656</v>
+        <v>10.54800639254657</v>
       </c>
       <c r="F19">
-        <v>49.40896117236973</v>
+        <v>49.4089611723697</v>
       </c>
       <c r="G19">
-        <v>38.84132537957146</v>
+        <v>38.84132537957147</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>76.81082247788258</v>
+        <v>76.81082247788257</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>46.88869913620807</v>
+        <v>46.88869913620806</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.705808256645195</v>
+        <v>9.705808256645179</v>
       </c>
       <c r="D20">
-        <v>5.286593473874835</v>
+        <v>5.286593473874893</v>
       </c>
       <c r="E20">
-        <v>10.77190408780303</v>
+        <v>10.77190408780302</v>
       </c>
       <c r="F20">
-        <v>51.00611185400075</v>
+        <v>51.00611185400048</v>
       </c>
       <c r="G20">
-        <v>40.13491098944813</v>
+        <v>40.13491098944791</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>78.59648744585212</v>
+        <v>78.59648744585203</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>48.00595444883011</v>
+        <v>48.00595444883007</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.53719138428697</v>
+        <v>10.5371913842869</v>
       </c>
       <c r="D21">
-        <v>6.128962513808016</v>
+        <v>6.128962513808083</v>
       </c>
       <c r="E21">
-        <v>11.51377482393867</v>
+        <v>11.51377482393868</v>
       </c>
       <c r="F21">
         <v>56.62734309132546</v>
       </c>
       <c r="G21">
-        <v>44.69269158200004</v>
+        <v>44.6926915820001</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>84.61421515021914</v>
+        <v>84.61421515021922</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>51.78849929598462</v>
+        <v>51.78849929598469</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.10107800389576</v>
+        <v>11.10107800389571</v>
       </c>
       <c r="D22">
-        <v>6.73442065036989</v>
+        <v>6.734420650370019</v>
       </c>
       <c r="E22">
-        <v>11.9942969137654</v>
+        <v>11.99429691376536</v>
       </c>
       <c r="F22">
-        <v>60.58121142502034</v>
+        <v>60.58121142502065</v>
       </c>
       <c r="G22">
-        <v>47.90365143446936</v>
+        <v>47.90365143446964</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>88.61423896408343</v>
+        <v>88.61423896408357</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>54.31932250061298</v>
+        <v>54.31932250061303</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.7974439642862</v>
+        <v>10.79744396428623</v>
       </c>
       <c r="D23">
-        <v>6.404887557538647</v>
+        <v>6.40488755753877</v>
       </c>
       <c r="E23">
         <v>11.73796087013019</v>
       </c>
       <c r="F23">
-        <v>58.43794791048526</v>
+        <v>58.43794791048631</v>
       </c>
       <c r="G23">
-        <v>46.16254420162168</v>
+        <v>46.1625442016225</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>86.46886433536218</v>
+        <v>86.46886433536264</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>52.96016980959949</v>
+        <v>52.96016980959979</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.692420303420365</v>
+        <v>9.692420303420404</v>
       </c>
       <c r="D24">
-        <v>5.273504345769441</v>
+        <v>5.273504345769309</v>
       </c>
       <c r="E24">
         <v>10.75965484923536</v>
       </c>
       <c r="F24">
-        <v>50.91762159151985</v>
+        <v>50.9176215915195</v>
       </c>
       <c r="G24">
-        <v>40.06322449890677</v>
+        <v>40.06322449890645</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>78.4984659676464</v>
+        <v>78.49846596764621</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>47.94456640051926</v>
+        <v>47.94456640051916</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.533453836511088</v>
+        <v>8.53345383651121</v>
       </c>
       <c r="D25">
-        <v>4.195553289970606</v>
+        <v>4.195553289970619</v>
       </c>
       <c r="E25">
-        <v>9.666222289037837</v>
+        <v>9.666222289037812</v>
       </c>
       <c r="F25">
-        <v>43.50463702120748</v>
+        <v>43.50463702120776</v>
       </c>
       <c r="G25">
-        <v>34.06368369132814</v>
+        <v>34.06368369132839</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>69.88691438405506</v>
+        <v>69.88691438405516</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>42.576255222082</v>
+        <v>42.5762552220821</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.671158064442252</v>
+        <v>7.670557628045807</v>
       </c>
       <c r="D2">
-        <v>3.462398298625848</v>
+        <v>3.455251203633923</v>
       </c>
       <c r="E2">
-        <v>8.939197128079854</v>
+        <v>8.937319285755525</v>
       </c>
       <c r="F2">
-        <v>38.31814977396004</v>
+        <v>38.27773558812966</v>
       </c>
       <c r="G2">
-        <v>29.87085504553241</v>
+        <v>29.9087948817932</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>29.44500710527106</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>63.32701223852665</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>63.32216637052785</v>
       </c>
       <c r="L2">
-        <v>38.51630150627579</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>38.51318503786905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.069881486862687</v>
+        <v>7.069445013166149</v>
       </c>
       <c r="D3">
-        <v>2.985216065539105</v>
+        <v>2.978794758329081</v>
       </c>
       <c r="E3">
-        <v>8.553269604090046</v>
+        <v>8.551514603034503</v>
       </c>
       <c r="F3">
-        <v>34.88071107142365</v>
+        <v>34.84417070175297</v>
       </c>
       <c r="G3">
-        <v>27.09234522823762</v>
+        <v>27.12698012870069</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.77634188388838</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>58.68071368096975</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>58.67704425523186</v>
       </c>
       <c r="L3">
-        <v>35.65408533707121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>35.6517244973175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.689724730501971</v>
+        <v>6.689374873870893</v>
       </c>
       <c r="D4">
-        <v>2.697949152671727</v>
+        <v>2.691945151454164</v>
       </c>
       <c r="E4">
-        <v>8.315191997913738</v>
+        <v>8.313547410259673</v>
       </c>
       <c r="F4">
-        <v>32.78967893074869</v>
+        <v>32.75542093611762</v>
       </c>
       <c r="G4">
-        <v>25.4015262679926</v>
+        <v>25.43411665136978</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>25.1656966605707</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>55.71378145391513</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>55.7107553537946</v>
       </c>
       <c r="L4">
-        <v>33.83172886961209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>33.82978064017473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.53173158682479</v>
+        <v>6.531414272642919</v>
       </c>
       <c r="D5">
-        <v>2.581877702281387</v>
+        <v>2.576037704066819</v>
       </c>
       <c r="E5">
-        <v>8.217938085100641</v>
+        <v>8.216347068831722</v>
       </c>
       <c r="F5">
-        <v>31.94061024170978</v>
+        <v>31.90726614125485</v>
       </c>
       <c r="G5">
-        <v>24.71469301064369</v>
+        <v>24.74644950253698</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>24.51495737728966</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>54.47420159045351</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>54.4714223665675</v>
       </c>
       <c r="L5">
-        <v>33.07152489442405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>33.06973492900345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.50530287755125</v>
+        <v>6.504990819707383</v>
       </c>
       <c r="D6">
-        <v>2.562653103662684</v>
+        <v>2.556839993441457</v>
       </c>
       <c r="E6">
-        <v>8.201776943950467</v>
+        <v>8.200195335325954</v>
       </c>
       <c r="F6">
-        <v>31.79976541858161</v>
+        <v>31.76657228562287</v>
       </c>
       <c r="G6">
-        <v>24.60074027328507</v>
+        <v>24.63235833961231</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>24.40721158255558</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>54.26647792833745</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>54.26373888791453</v>
       </c>
       <c r="L6">
-        <v>32.94419925089741</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>32.94243504314643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.687606815689525</v>
+        <v>6.687257408206118</v>
       </c>
       <c r="D7">
-        <v>2.696380264685059</v>
+        <v>2.690378498757314</v>
       </c>
       <c r="E7">
-        <v>8.313881264411698</v>
+        <v>8.312237364780117</v>
       </c>
       <c r="F7">
-        <v>32.7782177349113</v>
+        <v>32.74397212192027</v>
       </c>
       <c r="G7">
-        <v>25.39225626967766</v>
+        <v>25.42483540597951</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>25.15689927293708</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>55.69718988827788</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>55.69416717426482</v>
       </c>
       <c r="L7">
-        <v>33.82154916983243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>33.81960311133348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.465904995647249</v>
+        <v>7.465364552033764</v>
       </c>
       <c r="D8">
-        <v>3.296370635093779</v>
+        <v>3.289480499685613</v>
       </c>
       <c r="E8">
-        <v>8.80637642529808</v>
+        <v>8.804533530644248</v>
       </c>
       <c r="F8">
-        <v>37.12749373195942</v>
+        <v>37.08844075540809</v>
       </c>
       <c r="G8">
-        <v>28.90849651699027</v>
+        <v>28.94530198434154</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>28.51800777738131</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>61.74743588975049</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>61.74301522113048</v>
       </c>
       <c r="L8">
-        <v>37.54206583372432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>37.53922265892349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.923357650159998</v>
+        <v>8.922279637912782</v>
       </c>
       <c r="D9">
-        <v>4.546177052055535</v>
+        <v>4.537233597399673</v>
       </c>
       <c r="E9">
-        <v>10.04111013742066</v>
+        <v>10.04207428629924</v>
       </c>
       <c r="F9">
-        <v>45.94339520839908</v>
+        <v>45.89362342679858</v>
       </c>
       <c r="G9">
-        <v>36.03630548310123</v>
+        <v>36.08109517872359</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>35.43395613647639</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>72.81122574041657</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>72.80313869511123</v>
       </c>
       <c r="L9">
-        <v>44.39396572492198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>44.38875788031358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.987309987480661</v>
+        <v>9.985619248026211</v>
       </c>
       <c r="D10">
-        <v>5.565265385798034</v>
+        <v>5.554407411389088</v>
       </c>
       <c r="E10">
-        <v>11.02730145660355</v>
+        <v>11.02876237992687</v>
       </c>
       <c r="F10">
-        <v>52.88167211302597</v>
+        <v>52.82202695310288</v>
       </c>
       <c r="G10">
-        <v>41.65475381909163</v>
+        <v>41.70478713543032</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>40.94296796241292</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>80.64948722262805</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>80.6374658557191</v>
       </c>
       <c r="L10">
-        <v>49.29328829932489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>49.28552187337424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.4823655758854</v>
+        <v>10.4802954990142</v>
       </c>
       <c r="D11">
-        <v>6.071591826098746</v>
+        <v>6.059674697152826</v>
       </c>
       <c r="E11">
-        <v>11.46603780885621</v>
+        <v>11.46775742321372</v>
       </c>
       <c r="F11">
-        <v>56.24901659511023</v>
+        <v>56.18390719888081</v>
       </c>
       <c r="G11">
-        <v>44.38567973862255</v>
+        <v>44.43773850172174</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>43.63233408594645</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>84.22168975228215</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>84.2073091050034</v>
       </c>
       <c r="L11">
-        <v>51.54089774897363</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>51.53158707092377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.67309887955989</v>
+        <v>10.67086198399039</v>
       </c>
       <c r="D12">
-        <v>6.272310726927643</v>
+        <v>6.259949145537699</v>
       </c>
       <c r="E12">
-        <v>11.63135105668651</v>
+        <v>11.63317451100634</v>
       </c>
       <c r="F12">
-        <v>57.56982843081892</v>
+        <v>57.50242293120444</v>
       </c>
       <c r="G12">
-        <v>45.45768910724025</v>
+        <v>45.5104217325677</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>44.68964123346772</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>85.58452910630288</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>85.56912465775351</v>
       </c>
       <c r="L12">
-        <v>52.40112280613413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>52.39113982970193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.63184006968674</v>
+        <v>10.62964033968297</v>
       </c>
       <c r="D13">
-        <v>6.228621898642111</v>
+        <v>6.216358354369462</v>
       </c>
       <c r="E13">
-        <v>11.59577249068779</v>
+        <v>11.59757329806864</v>
       </c>
       <c r="F13">
-        <v>57.28300726428246</v>
+        <v>57.21610842745749</v>
       </c>
       <c r="G13">
-        <v>45.22485578862135</v>
+        <v>45.27744847601222</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>44.45993082154952</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>85.2903724061684</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>85.27519540123346</v>
       </c>
       <c r="L13">
-        <v>52.21531737379803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>52.20548386282922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.49797932785436</v>
+        <v>10.49589606316813</v>
       </c>
       <c r="D14">
-        <v>6.087903696978655</v>
+        <v>6.07595100642664</v>
       </c>
       <c r="E14">
-        <v>11.47965051236689</v>
+        <v>11.48137854414555</v>
       </c>
       <c r="F14">
-        <v>56.35664974007866</v>
+        <v>56.29135670650621</v>
       </c>
       <c r="G14">
-        <v>44.47302003700118</v>
+        <v>44.52513646760528</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>43.71844498450739</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>84.33354016437498</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>84.31907830114629</v>
       </c>
       <c r="L14">
-        <v>51.61143891068159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>51.60207494760986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.4164745364457</v>
+        <v>10.4144592315509</v>
       </c>
       <c r="D15">
-        <v>6.002987653348981</v>
+        <v>5.991219047266354</v>
       </c>
       <c r="E15">
-        <v>11.408436547879</v>
+        <v>11.41012080783949</v>
       </c>
       <c r="F15">
-        <v>55.79576091730456</v>
+        <v>55.73141834193783</v>
       </c>
       <c r="G15">
-        <v>44.01791401526628</v>
+        <v>44.06972479357913</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>43.2698087602834</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>83.74911697506441</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>83.73507417381606</v>
       </c>
       <c r="L15">
-        <v>51.24297251415574</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>51.2338834056985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.955305974365432</v>
+        <v>9.95363738037244</v>
       </c>
       <c r="D16">
-        <v>5.533249233895829</v>
+        <v>5.52245552501935</v>
       </c>
       <c r="E16">
-        <v>10.99847582999361</v>
+        <v>10.99992059951098</v>
       </c>
       <c r="F16">
-        <v>52.66700561355563</v>
+        <v>52.60769175465811</v>
       </c>
       <c r="G16">
-        <v>41.48075735243704</v>
+        <v>41.53064820693907</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>40.77184077890975</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>80.41686181186243</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>80.40497970119745</v>
       </c>
       <c r="L16">
-        <v>49.14726458906875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>49.13958908649359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.67620095411128</v>
+        <v>9.674714669800382</v>
       </c>
       <c r="D17">
-        <v>5.257666880817932</v>
+        <v>5.247414351166539</v>
       </c>
       <c r="E17">
-        <v>10.74480272546647</v>
+        <v>10.74610970030468</v>
       </c>
       <c r="F17">
-        <v>50.81050312193616</v>
+        <v>50.75397865416773</v>
       </c>
       <c r="G17">
-        <v>39.97644962897805</v>
+        <v>40.02504972523202</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>39.29357940270694</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>78.37966798987701</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>78.36893966922975</v>
       </c>
       <c r="L17">
-        <v>47.87017576780303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>47.86325259869581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.516576292164071</v>
+        <v>9.515186123879873</v>
       </c>
       <c r="D18">
-        <v>5.102957538153161</v>
+        <v>5.092999922221856</v>
       </c>
       <c r="E18">
-        <v>10.59792050413032</v>
+        <v>10.59915121423913</v>
       </c>
       <c r="F18">
-        <v>49.76134358779124</v>
+        <v>49.70633917593646</v>
       </c>
       <c r="G18">
-        <v>39.12668225880654</v>
+        <v>39.17450961924914</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>38.45957597233664</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>77.20782482769741</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>77.1977105606916</v>
       </c>
       <c r="L18">
-        <v>47.13690465597585</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>47.13038114341045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.462646574811982</v>
+        <v>9.461287631205476</v>
       </c>
       <c r="D19">
-        <v>5.051161259766087</v>
+        <v>5.041301031509644</v>
       </c>
       <c r="E19">
-        <v>10.54800639254657</v>
+        <v>10.54921176325924</v>
       </c>
       <c r="F19">
-        <v>49.4089611723697</v>
+        <v>49.35445878525071</v>
       </c>
       <c r="G19">
-        <v>38.84132537957147</v>
+        <v>38.888886705469</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>38.17969521342982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>76.81082247788257</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>76.80090863087447</v>
       </c>
       <c r="L19">
-        <v>46.88869913620806</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>46.88230595398718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.705808256645179</v>
+        <v>9.704303516094196</v>
       </c>
       <c r="D20">
-        <v>5.286593473874893</v>
+        <v>5.27628511426824</v>
       </c>
       <c r="E20">
-        <v>10.77190408780302</v>
+        <v>10.77322541394015</v>
       </c>
       <c r="F20">
-        <v>51.00611185400048</v>
+        <v>50.94929964089807</v>
       </c>
       <c r="G20">
-        <v>40.13491098944791</v>
+        <v>40.18365183300831</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>39.44918808934107</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>78.59648744585203</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>78.5856416907949</v>
       </c>
       <c r="L20">
-        <v>48.00595444883007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>47.99895478857694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.5371913842869</v>
+        <v>10.5350746401073</v>
       </c>
       <c r="D21">
-        <v>6.128962513808083</v>
+        <v>6.116919882354311</v>
       </c>
       <c r="E21">
-        <v>11.51377482393868</v>
+        <v>11.51552406136159</v>
       </c>
       <c r="F21">
-        <v>56.62734309132546</v>
+        <v>56.56158555058285</v>
       </c>
       <c r="G21">
-        <v>44.6926915820001</v>
+        <v>44.74495093210941</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>43.93504967708635</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>84.61421515021922</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>84.59954732753947</v>
       </c>
       <c r="L21">
-        <v>51.78849929598469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>51.77900016830637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.10107800389571</v>
+        <v>11.09841644653043</v>
       </c>
       <c r="D22">
-        <v>6.734420650370019</v>
+        <v>6.720973616745423</v>
       </c>
       <c r="E22">
-        <v>11.99429691376536</v>
+        <v>11.99636081168476</v>
       </c>
       <c r="F22">
-        <v>60.58121142502065</v>
+        <v>60.50818837185125</v>
       </c>
       <c r="G22">
-        <v>47.90365143446964</v>
+        <v>47.9576153155413</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>47.10495040823911</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>88.61423896408357</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>88.59625930074905</v>
       </c>
       <c r="L22">
-        <v>54.31932250061303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>54.30764297004256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.79744396428623</v>
+        <v>10.79509125749821</v>
       </c>
       <c r="D23">
-        <v>6.40488755753877</v>
+        <v>6.392223851445921</v>
       </c>
       <c r="E23">
-        <v>11.73796087013019</v>
+        <v>11.73985317024607</v>
       </c>
       <c r="F23">
-        <v>58.43794791048631</v>
+        <v>58.36898029709771</v>
       </c>
       <c r="G23">
-        <v>46.1625442016225</v>
+        <v>46.21567759718649</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>45.38526951230107</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>86.46886433536264</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>86.45275340860886</v>
       </c>
       <c r="L23">
-        <v>52.96016980959979</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>52.94972217318502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.692420303420404</v>
+        <v>9.690923933465822</v>
       </c>
       <c r="D24">
-        <v>5.273504345769309</v>
+        <v>5.263221276353823</v>
       </c>
       <c r="E24">
-        <v>10.75965484923536</v>
+        <v>10.76096967803053</v>
       </c>
       <c r="F24">
-        <v>50.9176215915195</v>
+        <v>50.86093972290124</v>
       </c>
       <c r="G24">
-        <v>40.06322449890645</v>
+        <v>40.11190180356597</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>39.37878882268588</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>78.49846596764621</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>78.48767345505799</v>
       </c>
       <c r="L24">
-        <v>47.94456640051916</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>47.93760142219391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.53345383651121</v>
+        <v>8.53254774868898</v>
       </c>
       <c r="D25">
-        <v>4.195553289970619</v>
+        <v>4.187214672467702</v>
       </c>
       <c r="E25">
-        <v>9.666222289037812</v>
+        <v>9.667026200854036</v>
       </c>
       <c r="F25">
-        <v>43.50463702120776</v>
+        <v>43.45799623461888</v>
       </c>
       <c r="G25">
-        <v>34.06368369132839</v>
+        <v>34.10637769444686</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>33.50988039127093</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>69.88691438405516</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>69.87997036866577</v>
       </c>
       <c r="L25">
-        <v>42.5762552220821</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>42.57178662036578</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.670557628045807</v>
+        <v>8.177182896810228</v>
       </c>
       <c r="D2">
-        <v>3.455251203633923</v>
+        <v>14.21899690298531</v>
       </c>
       <c r="E2">
-        <v>8.937319285755525</v>
+        <v>24.09046114080621</v>
       </c>
       <c r="F2">
-        <v>38.27773558812966</v>
+        <v>47.56919148325301</v>
       </c>
       <c r="G2">
-        <v>29.9087948817932</v>
+        <v>1.827304173315724</v>
       </c>
       <c r="H2">
-        <v>29.44500710527106</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13.95197039549183</v>
       </c>
       <c r="K2">
-        <v>63.32216637052785</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>38.51318503786905</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>105.0929727174212</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>41.9615312455003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.069445013166149</v>
+        <v>7.35960639852111</v>
       </c>
       <c r="D3">
-        <v>2.978794758329081</v>
+        <v>12.91587566848641</v>
       </c>
       <c r="E3">
-        <v>8.551514603034503</v>
+        <v>21.87371397879914</v>
       </c>
       <c r="F3">
-        <v>34.84417070175297</v>
+        <v>39.55466347213147</v>
       </c>
       <c r="G3">
-        <v>27.12698012870069</v>
+        <v>1.891623663099965</v>
       </c>
       <c r="H3">
-        <v>26.77634188388838</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.53078320935734</v>
       </c>
       <c r="K3">
-        <v>58.67704425523186</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>35.6517244973175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>95.23976183250818</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>35.48220601723781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.689374873870893</v>
+        <v>6.886063307037428</v>
       </c>
       <c r="D4">
-        <v>2.691945151454164</v>
+        <v>12.14928724083878</v>
       </c>
       <c r="E4">
-        <v>8.313547410259673</v>
+        <v>20.57118734913011</v>
       </c>
       <c r="F4">
-        <v>32.75542093611762</v>
+        <v>35.52591520077685</v>
       </c>
       <c r="G4">
-        <v>25.43411665136978</v>
+        <v>1.926052279492673</v>
       </c>
       <c r="H4">
-        <v>25.1656966605707</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.72525486143191</v>
       </c>
       <c r="K4">
-        <v>55.7107553537946</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>33.82978064017473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>89.4867448050714</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>32.12326006479479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.531414272642919</v>
+        <v>6.696056391433138</v>
       </c>
       <c r="D5">
-        <v>2.576037704066819</v>
+        <v>11.83953820846895</v>
       </c>
       <c r="E5">
-        <v>8.216347068831722</v>
+        <v>20.04471665687139</v>
       </c>
       <c r="F5">
-        <v>31.90726614125485</v>
+        <v>34.04150448272053</v>
       </c>
       <c r="G5">
-        <v>24.74644950253698</v>
+        <v>1.939330770077253</v>
       </c>
       <c r="H5">
-        <v>24.51495737728966</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.40492027159703</v>
       </c>
       <c r="K5">
-        <v>54.4714223665675</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>33.06973492900345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>87.21203872293411</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>30.85768005637241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.504990819707383</v>
+        <v>6.664605201390529</v>
       </c>
       <c r="D6">
-        <v>2.556839993441457</v>
+        <v>11.7881536403675</v>
       </c>
       <c r="E6">
-        <v>8.200195335325954</v>
+        <v>19.95735943062377</v>
       </c>
       <c r="F6">
-        <v>31.76657228562287</v>
+        <v>33.80332279594622</v>
       </c>
       <c r="G6">
-        <v>24.63235833961231</v>
+        <v>1.941500135044169</v>
       </c>
       <c r="H6">
-        <v>24.40721158255558</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.35203869571484</v>
       </c>
       <c r="K6">
-        <v>54.26373888791453</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>32.94243504314643</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>86.83812016807632</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>30.65280767861124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.687257408206118</v>
+        <v>6.883492608600725</v>
       </c>
       <c r="D7">
-        <v>2.690378498757314</v>
+        <v>12.145104435364</v>
       </c>
       <c r="E7">
-        <v>8.312237364780117</v>
+        <v>20.56407914607227</v>
       </c>
       <c r="F7">
-        <v>32.74397212192027</v>
+        <v>35.50531665875942</v>
       </c>
       <c r="G7">
-        <v>25.42483540597951</v>
+        <v>1.926233928988909</v>
       </c>
       <c r="H7">
-        <v>25.15689927293708</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.72091070084655</v>
       </c>
       <c r="K7">
-        <v>55.69416717426482</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>33.81960311133348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>89.45541510054912</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>32.10582013016042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.465364552033764</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D8">
-        <v>3.289480499685613</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E8">
-        <v>8.804533530644248</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F8">
-        <v>37.08844075540809</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G8">
-        <v>28.94530198434154</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H8">
-        <v>28.51800777738131</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K8">
-        <v>61.74301522113048</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>37.53922265892349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.922279637912782</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D9">
-        <v>4.537233597399673</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E9">
-        <v>10.04207428629924</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F9">
-        <v>45.89362342679858</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G9">
-        <v>36.08109517872359</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H9">
-        <v>35.43395613647639</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K9">
-        <v>72.80313869511123</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>44.38875788031358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.985619248026211</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D10">
-        <v>5.554407411389088</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E10">
-        <v>11.02876237992687</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F10">
-        <v>52.82202695310288</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G10">
-        <v>41.70478713543032</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H10">
-        <v>40.94296796241292</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K10">
-        <v>80.6374658557191</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>49.28552187337424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.4802954990142</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D11">
-        <v>6.059674697152826</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E11">
-        <v>11.46775742321372</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F11">
-        <v>56.18390719888081</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G11">
-        <v>44.43773850172174</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H11">
-        <v>43.63233408594645</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K11">
-        <v>84.2073091050034</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>51.53158707092377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.67086198399039</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D12">
-        <v>6.259949145537699</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E12">
-        <v>11.63317451100634</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F12">
-        <v>57.50242293120444</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G12">
-        <v>45.5104217325677</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H12">
-        <v>44.68964123346772</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K12">
-        <v>85.56912465775351</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>52.39113982970193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.62964033968297</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D13">
-        <v>6.216358354369462</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E13">
-        <v>11.59757329806864</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F13">
-        <v>57.21610842745749</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G13">
-        <v>45.27744847601222</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H13">
-        <v>44.45993082154952</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K13">
-        <v>85.27519540123346</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>52.20548386282922</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.49589606316813</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D14">
-        <v>6.07595100642664</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E14">
-        <v>11.48137854414555</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F14">
-        <v>56.29135670650621</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G14">
-        <v>44.52513646760528</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H14">
-        <v>43.71844498450739</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K14">
-        <v>84.31907830114629</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>51.60207494760986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.4144592315509</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D15">
-        <v>5.991219047266354</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E15">
-        <v>11.41012080783949</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F15">
-        <v>55.73141834193783</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G15">
-        <v>44.06972479357913</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H15">
-        <v>43.2698087602834</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K15">
-        <v>83.73507417381606</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>51.2338834056985</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.95363738037244</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D16">
-        <v>5.52245552501935</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E16">
-        <v>10.99992059951098</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F16">
-        <v>52.60769175465811</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G16">
-        <v>41.53064820693907</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H16">
-        <v>40.77184077890975</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K16">
-        <v>80.40497970119745</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>49.13958908649359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.674714669800382</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D17">
-        <v>5.247414351166539</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E17">
-        <v>10.74610970030468</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F17">
-        <v>50.75397865416773</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G17">
-        <v>40.02504972523202</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H17">
-        <v>39.29357940270694</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K17">
-        <v>78.36893966922975</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>47.86325259869581</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.515186123879873</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D18">
-        <v>5.092999922221856</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E18">
-        <v>10.59915121423913</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F18">
-        <v>49.70633917593646</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G18">
-        <v>39.17450961924914</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H18">
-        <v>38.45957597233664</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K18">
-        <v>77.1977105606916</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>47.13038114341045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.461287631205476</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D19">
-        <v>5.041301031509644</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E19">
-        <v>10.54921176325924</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F19">
-        <v>49.35445878525071</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G19">
-        <v>38.888886705469</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H19">
-        <v>38.17969521342982</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K19">
-        <v>76.80090863087447</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>46.88230595398718</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.704303516094196</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D20">
-        <v>5.27628511426824</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E20">
-        <v>10.77322541394015</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F20">
-        <v>50.94929964089807</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G20">
-        <v>40.18365183300831</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H20">
-        <v>39.44918808934107</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K20">
-        <v>78.5856416907949</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>47.99895478857694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.5350746401073</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D21">
-        <v>6.116919882354311</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E21">
-        <v>11.51552406136159</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F21">
-        <v>56.56158555058285</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G21">
-        <v>44.74495093210941</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H21">
-        <v>43.93504967708635</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K21">
-        <v>84.59954732753947</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>51.77900016830637</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.09841644653043</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D22">
-        <v>6.720973616745423</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E22">
-        <v>11.99636081168476</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F22">
-        <v>60.50818837185125</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G22">
-        <v>47.9576153155413</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H22">
-        <v>47.10495040823911</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K22">
-        <v>88.59625930074905</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>54.30764297004256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.79509125749821</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D23">
-        <v>6.392223851445921</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E23">
-        <v>11.73985317024607</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F23">
-        <v>58.36898029709771</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G23">
-        <v>46.21567759718649</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H23">
-        <v>45.38526951230107</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K23">
-        <v>86.45275340860886</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>52.94972217318502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.690923933465822</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D24">
-        <v>5.263221276353823</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E24">
-        <v>10.76096967803053</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F24">
-        <v>50.86093972290124</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G24">
-        <v>40.11190180356597</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H24">
-        <v>39.37878882268588</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K24">
-        <v>78.48767345505799</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>47.93760142219391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>39.55313949985454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.53254774868898</v>
+        <v>7.88580897100261</v>
       </c>
       <c r="D25">
-        <v>4.187214672467702</v>
+        <v>13.75779599633825</v>
       </c>
       <c r="E25">
-        <v>9.667026200854036</v>
+        <v>23.30509616347351</v>
       </c>
       <c r="F25">
-        <v>43.45799623461888</v>
+        <v>44.56161229732374</v>
       </c>
       <c r="G25">
-        <v>34.10637769444686</v>
+        <v>1.850979227442231</v>
       </c>
       <c r="H25">
-        <v>33.50988039127093</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>13.44035618798861</v>
       </c>
       <c r="K25">
-        <v>69.87997036866577</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>42.57178662036578</v>
+        <v>101.5922746762404</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>39.55313949985454</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.177182896810228</v>
+        <v>2.573849934112692</v>
       </c>
       <c r="D2">
-        <v>14.21899690298531</v>
+        <v>1.997906030188858</v>
       </c>
       <c r="E2">
-        <v>24.09046114080621</v>
+        <v>5.994031117141438</v>
       </c>
       <c r="F2">
-        <v>47.56919148325301</v>
+        <v>44.76059836573022</v>
       </c>
       <c r="G2">
-        <v>1.827304173315724</v>
+        <v>2.165946388478852</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>33.30002352069858</v>
       </c>
       <c r="J2">
-        <v>13.95197039549183</v>
+        <v>6.279684394050367</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.76558931762748</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.662712300447499</v>
       </c>
       <c r="M2">
-        <v>105.0929727174212</v>
+        <v>15.97093380120506</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>41.9615312455003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.35960639852111</v>
+        <v>2.501290519198806</v>
       </c>
       <c r="D3">
-        <v>12.91587566848641</v>
+        <v>2.06582605109323</v>
       </c>
       <c r="E3">
-        <v>21.87371397879914</v>
+        <v>6.001440144940997</v>
       </c>
       <c r="F3">
-        <v>39.55466347213147</v>
+        <v>43.88177979210608</v>
       </c>
       <c r="G3">
-        <v>1.891623663099965</v>
+        <v>2.177459712267835</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>32.74229415504538</v>
       </c>
       <c r="J3">
-        <v>12.53078320935734</v>
+        <v>6.328501342021488</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.63836983368243</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.702095454658858</v>
       </c>
       <c r="M3">
-        <v>95.23976183250818</v>
+        <v>15.37492628739167</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>35.48220601723781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.886063307037428</v>
+        <v>2.456470354947334</v>
       </c>
       <c r="D4">
-        <v>12.14928724083878</v>
+        <v>2.107456990303534</v>
       </c>
       <c r="E4">
-        <v>20.57118734913011</v>
+        <v>6.007788480413646</v>
       </c>
       <c r="F4">
-        <v>35.52591520077685</v>
+        <v>43.37430011934333</v>
       </c>
       <c r="G4">
-        <v>1.926052279492673</v>
+        <v>2.184687434942801</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>32.42438207270564</v>
       </c>
       <c r="J4">
-        <v>11.72525486143191</v>
+        <v>6.360062573939768</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.92891054603506</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.727364233232189</v>
       </c>
       <c r="M4">
-        <v>89.4867448050714</v>
+        <v>15.0085405881727</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>32.12326006479479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.696056391433138</v>
+        <v>2.438160403061396</v>
       </c>
       <c r="D5">
-        <v>11.83953820846895</v>
+        <v>2.124426560764206</v>
       </c>
       <c r="E5">
-        <v>20.04471665687139</v>
+        <v>6.010821346488435</v>
       </c>
       <c r="F5">
-        <v>34.04150448272053</v>
+        <v>43.17539278758897</v>
       </c>
       <c r="G5">
-        <v>1.939330770077253</v>
+        <v>2.187675459776826</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>32.30082071724446</v>
       </c>
       <c r="J5">
-        <v>11.40492027159703</v>
+        <v>6.373322494222513</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.63571439200974</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.737938446387631</v>
       </c>
       <c r="M5">
-        <v>87.21203872293411</v>
+        <v>14.85929592240946</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30.85768005637241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.664605201390529</v>
+        <v>2.43511800071542</v>
       </c>
       <c r="D6">
-        <v>11.7881536403675</v>
+        <v>2.127245259947787</v>
       </c>
       <c r="E6">
-        <v>19.95735943062377</v>
+        <v>6.011351697050969</v>
       </c>
       <c r="F6">
-        <v>33.80332279594622</v>
+        <v>43.14283575735921</v>
       </c>
       <c r="G6">
-        <v>1.941500135044169</v>
+        <v>2.188174274317403</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>32.28065992455307</v>
       </c>
       <c r="J6">
-        <v>11.35203869571484</v>
+        <v>6.375548343546296</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.58679206767042</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.739711115800509</v>
       </c>
       <c r="M6">
-        <v>86.83812016807632</v>
+        <v>14.83452300132108</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>30.65280767861124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.883492608600725</v>
+        <v>2.456223573299056</v>
       </c>
       <c r="D7">
-        <v>12.145104435364</v>
+        <v>2.107685800187999</v>
       </c>
       <c r="E7">
-        <v>20.56407914607227</v>
+        <v>6.007827585753148</v>
       </c>
       <c r="F7">
-        <v>35.50531665875942</v>
+        <v>43.37158586448128</v>
       </c>
       <c r="G7">
-        <v>1.926233928988909</v>
+        <v>2.184727556160554</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>32.42269166608106</v>
       </c>
       <c r="J7">
-        <v>11.72091070084655</v>
+        <v>6.360239789262579</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.92497252713099</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.727505714709954</v>
       </c>
       <c r="M7">
-        <v>89.45541510054912</v>
+        <v>15.00652733690594</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>32.10582013016042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.88580897100261</v>
+        <v>2.548899665842753</v>
       </c>
       <c r="D8">
-        <v>13.75779599633825</v>
+        <v>2.021354085009322</v>
       </c>
       <c r="E8">
-        <v>23.30509616347351</v>
+        <v>5.996208260435547</v>
       </c>
       <c r="F8">
-        <v>44.56161229732374</v>
+        <v>44.45080716674899</v>
       </c>
       <c r="G8">
-        <v>1.850979227442231</v>
+        <v>2.169885052587182</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>33.10251876634727</v>
       </c>
       <c r="J8">
-        <v>13.44035618798861</v>
+        <v>6.296186511405737</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.38066633237215</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.676068133778001</v>
       </c>
       <c r="M8">
-        <v>101.5922746762404</v>
+        <v>15.76561523935725</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.88580897100261</v>
+        <v>2.727671315493704</v>
       </c>
       <c r="D9">
-        <v>13.75779599633825</v>
+        <v>1.850365303292782</v>
       </c>
       <c r="E9">
-        <v>23.30509616347351</v>
+        <v>5.988018636687094</v>
       </c>
       <c r="F9">
-        <v>44.56161229732374</v>
+        <v>46.83029439185412</v>
       </c>
       <c r="G9">
-        <v>1.850979227442231</v>
+        <v>2.141896491107526</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>34.63844008112791</v>
       </c>
       <c r="J9">
-        <v>13.44035618798861</v>
+        <v>6.183217753980308</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.0892404587125</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.583654795311997</v>
       </c>
       <c r="M9">
-        <v>101.5922746762404</v>
+        <v>17.24459292088906</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.88580897100261</v>
+        <v>2.856304502411754</v>
       </c>
       <c r="D10">
-        <v>13.75779599633825</v>
+        <v>1.722009032034849</v>
       </c>
       <c r="E10">
-        <v>23.30509616347351</v>
+        <v>5.991389469239076</v>
       </c>
       <c r="F10">
-        <v>44.56161229732374</v>
+        <v>48.75147664785987</v>
       </c>
       <c r="G10">
-        <v>1.850979227442231</v>
+        <v>2.121796641180095</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>35.9023091806007</v>
       </c>
       <c r="J10">
-        <v>13.44035618798861</v>
+        <v>6.108009039617217</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.98380732493608</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.520653956406797</v>
       </c>
       <c r="M10">
-        <v>101.5922746762404</v>
+        <v>18.3192613196201</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.88580897100261</v>
+        <v>2.914111080086382</v>
       </c>
       <c r="D11">
-        <v>13.75779599633825</v>
+        <v>1.662609354224063</v>
       </c>
       <c r="E11">
-        <v>23.30509616347351</v>
+        <v>5.995084099341268</v>
       </c>
       <c r="F11">
-        <v>44.56161229732374</v>
+        <v>49.66632130542096</v>
       </c>
       <c r="G11">
-        <v>1.850979227442231</v>
+        <v>2.112697418053417</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>36.50958613955347</v>
       </c>
       <c r="J11">
-        <v>13.44035618798861</v>
+        <v>6.07551366895867</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>25.83066352003544</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.492992734178242</v>
       </c>
       <c r="M11">
-        <v>101.5922746762404</v>
+        <v>18.80493171803487</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.88580897100261</v>
+        <v>2.935893434586291</v>
       </c>
       <c r="D12">
-        <v>13.75779599633825</v>
+        <v>1.639933885557571</v>
       </c>
       <c r="E12">
-        <v>23.30509616347351</v>
+        <v>5.99680549534219</v>
       </c>
       <c r="F12">
-        <v>44.56161229732374</v>
+        <v>50.01896123230996</v>
       </c>
       <c r="G12">
-        <v>1.850979227442231</v>
+        <v>2.109252790584495</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>36.74447460811216</v>
       </c>
       <c r="J12">
-        <v>13.44035618798861</v>
+        <v>6.063458707098923</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.18933490872874</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.482655883015583</v>
       </c>
       <c r="M12">
-        <v>101.5922746762404</v>
+        <v>18.98837510052189</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.88580897100261</v>
+        <v>2.93120705561813</v>
       </c>
       <c r="D13">
-        <v>13.75779599633825</v>
+        <v>1.644826162375899</v>
       </c>
       <c r="E13">
-        <v>23.30509616347351</v>
+        <v>5.996420228067918</v>
       </c>
       <c r="F13">
-        <v>44.56161229732374</v>
+        <v>49.9427318504431</v>
       </c>
       <c r="G13">
-        <v>1.850979227442231</v>
+        <v>2.109994698319105</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>36.69366322123937</v>
       </c>
       <c r="J13">
-        <v>13.44035618798861</v>
+        <v>6.066043763665805</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.11231321511268</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.484876074677681</v>
       </c>
       <c r="M13">
-        <v>101.5922746762404</v>
+        <v>18.94888790571089</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.88580897100261</v>
+        <v>2.91590530557091</v>
       </c>
       <c r="D14">
-        <v>13.75779599633825</v>
+        <v>1.660747698256292</v>
       </c>
       <c r="E14">
-        <v>23.30509616347351</v>
+        <v>5.995219188846408</v>
       </c>
       <c r="F14">
-        <v>44.56161229732374</v>
+        <v>49.69520666352949</v>
       </c>
       <c r="G14">
-        <v>1.850979227442231</v>
+        <v>2.112414038407034</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>36.52881009488615</v>
       </c>
       <c r="J14">
-        <v>13.44035618798861</v>
+        <v>6.0745168610517</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>25.86027324877872</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.492139587090262</v>
       </c>
       <c r="M14">
-        <v>101.5922746762404</v>
+        <v>18.820033041679</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.88580897100261</v>
+        <v>2.90651840778882</v>
       </c>
       <c r="D15">
-        <v>13.75779599633825</v>
+        <v>1.670475251998006</v>
       </c>
       <c r="E15">
-        <v>23.30509616347351</v>
+        <v>5.994525859040781</v>
       </c>
       <c r="F15">
-        <v>44.56161229732374</v>
+        <v>49.54440970309489</v>
       </c>
       <c r="G15">
-        <v>1.850979227442231</v>
+        <v>2.113895921056542</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>36.42848322637012</v>
       </c>
       <c r="J15">
-        <v>13.44035618798861</v>
+        <v>6.079739590814837</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>25.71475914743273</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.496606472028351</v>
       </c>
       <c r="M15">
-        <v>101.5922746762404</v>
+        <v>18.74104495342091</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.88580897100261</v>
+        <v>2.852511853169282</v>
       </c>
       <c r="D16">
-        <v>13.75779599633825</v>
+        <v>1.725867518421796</v>
       </c>
       <c r="E16">
-        <v>23.30509616347351</v>
+        <v>5.991192461719825</v>
       </c>
       <c r="F16">
-        <v>44.56161229732374</v>
+        <v>48.69253878821736</v>
       </c>
       <c r="G16">
-        <v>1.850979227442231</v>
+        <v>2.122391749125884</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>35.86329552011311</v>
       </c>
       <c r="J16">
-        <v>13.44035618798861</v>
+        <v>6.110167518735135</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>24.92842551132169</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.522481295476473</v>
       </c>
       <c r="M16">
-        <v>101.5922746762404</v>
+        <v>18.28745556665877</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.88580897100261</v>
+        <v>2.819193594566773</v>
       </c>
       <c r="D17">
-        <v>13.75779599633825</v>
+        <v>1.759564723916084</v>
       </c>
       <c r="E17">
-        <v>23.30509616347351</v>
+        <v>5.989708868102894</v>
       </c>
       <c r="F17">
-        <v>44.56161229732374</v>
+        <v>48.18063012470757</v>
       </c>
       <c r="G17">
-        <v>1.850979227442231</v>
+        <v>2.127611437902379</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>35.52503673777631</v>
       </c>
       <c r="J17">
-        <v>13.44035618798861</v>
+        <v>6.12927611277132</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>24.44076050798555</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.5386064528268</v>
       </c>
       <c r="M17">
-        <v>101.5922746762404</v>
+        <v>18.00835499544681</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.88580897100261</v>
+        <v>2.799963158658334</v>
       </c>
       <c r="D18">
-        <v>13.75779599633825</v>
+        <v>1.778853783027552</v>
       </c>
       <c r="E18">
-        <v>23.30509616347351</v>
+        <v>5.989058204731745</v>
       </c>
       <c r="F18">
-        <v>44.56161229732374</v>
+        <v>47.8900194909192</v>
       </c>
       <c r="G18">
-        <v>1.850979227442231</v>
+        <v>2.130618190767103</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>35.33350422907566</v>
       </c>
       <c r="J18">
-        <v>13.44035618798861</v>
+        <v>6.140428283400088</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>24.1583100538039</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.547975541851145</v>
       </c>
       <c r="M18">
-        <v>101.5922746762404</v>
+        <v>17.84752066761786</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.88580897100261</v>
+        <v>2.793440854123536</v>
       </c>
       <c r="D19">
-        <v>13.75779599633825</v>
+        <v>1.785369895788348</v>
       </c>
       <c r="E19">
-        <v>23.30509616347351</v>
+        <v>5.988872378294999</v>
       </c>
       <c r="F19">
-        <v>44.56161229732374</v>
+        <v>47.79227181775439</v>
       </c>
       <c r="G19">
-        <v>1.850979227442231</v>
+        <v>2.131637154014322</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>35.26916642657974</v>
       </c>
       <c r="J19">
-        <v>13.44035618798861</v>
+        <v>6.144231848902952</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>24.06233960756073</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.551164118726002</v>
       </c>
       <c r="M19">
-        <v>101.5922746762404</v>
+        <v>17.79301375871881</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.88580897100261</v>
+        <v>2.822747332666206</v>
       </c>
       <c r="D20">
-        <v>13.75779599633825</v>
+        <v>1.755987451279267</v>
       </c>
       <c r="E20">
-        <v>23.30509616347351</v>
+        <v>5.989845745270328</v>
       </c>
       <c r="F20">
-        <v>44.56161229732374</v>
+        <v>48.23472555976117</v>
       </c>
       <c r="G20">
-        <v>1.850979227442231</v>
+        <v>2.127055361051428</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>35.56073002371243</v>
       </c>
       <c r="J20">
-        <v>13.44035618798861</v>
+        <v>6.127225242695499</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.49287564053403</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.536880179353741</v>
       </c>
       <c r="M20">
-        <v>101.5922746762404</v>
+        <v>18.03809727759286</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.88580897100261</v>
+        <v>2.920402750623495</v>
       </c>
       <c r="D21">
-        <v>13.75779599633825</v>
+        <v>1.656076404000964</v>
       </c>
       <c r="E21">
-        <v>23.30509616347351</v>
+        <v>5.99556311669781</v>
       </c>
       <c r="F21">
-        <v>44.56161229732374</v>
+        <v>49.76773937270662</v>
       </c>
       <c r="G21">
-        <v>1.850979227442231</v>
+        <v>2.11170343696564</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>36.57709534804516</v>
       </c>
       <c r="J21">
-        <v>13.44035618798861</v>
+        <v>6.072021282521116</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.93444104694011</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.490002424362437</v>
       </c>
       <c r="M21">
-        <v>101.5922746762404</v>
+        <v>18.85789346449954</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.88580897100261</v>
+        <v>2.983598439372886</v>
       </c>
       <c r="D22">
-        <v>13.75779599633825</v>
+        <v>1.58969885502825</v>
       </c>
       <c r="E22">
-        <v>23.30509616347351</v>
+        <v>6.001184873307796</v>
       </c>
       <c r="F22">
-        <v>44.56161229732374</v>
+        <v>50.8060426570043</v>
       </c>
       <c r="G22">
-        <v>1.850979227442231</v>
+        <v>2.101673190444047</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>37.27022309385575</v>
       </c>
       <c r="J22">
-        <v>13.44035618798861</v>
+        <v>6.037403548243348</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>26.96912620913609</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.460165532818021</v>
       </c>
       <c r="M22">
-        <v>101.5922746762404</v>
+        <v>19.39096454315363</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.88580897100261</v>
+        <v>2.949928002117424</v>
       </c>
       <c r="D23">
-        <v>13.75779599633825</v>
+        <v>1.625237320585403</v>
       </c>
       <c r="E23">
-        <v>23.30509616347351</v>
+        <v>5.998007761929079</v>
       </c>
       <c r="F23">
-        <v>44.56161229732374</v>
+        <v>50.24842399736809</v>
       </c>
       <c r="G23">
-        <v>1.850979227442231</v>
+        <v>2.10702818423416</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>36.89754240984033</v>
       </c>
       <c r="J23">
-        <v>13.44035618798861</v>
+        <v>6.055744665373683</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.41953593839835</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.476018841270512</v>
       </c>
       <c r="M23">
-        <v>101.5922746762404</v>
+        <v>19.10669578033919</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.88580897100261</v>
+        <v>2.821140921800178</v>
       </c>
       <c r="D24">
-        <v>13.75779599633825</v>
+        <v>1.757604994848671</v>
       </c>
       <c r="E24">
-        <v>23.30509616347351</v>
+        <v>5.989783233915746</v>
       </c>
       <c r="F24">
-        <v>44.56161229732374</v>
+        <v>48.21025753622243</v>
       </c>
       <c r="G24">
-        <v>1.850979227442231</v>
+        <v>2.127306744675017</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>35.54458396138288</v>
       </c>
       <c r="J24">
-        <v>13.44035618798861</v>
+        <v>6.128151923050453</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.4693208892023</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.537660320298398</v>
       </c>
       <c r="M24">
-        <v>101.5922746762404</v>
+        <v>18.02465196084788</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.88580897100261</v>
+        <v>2.679731312646688</v>
       </c>
       <c r="D25">
-        <v>13.75779599633825</v>
+        <v>1.896970259581748</v>
       </c>
       <c r="E25">
-        <v>23.30509616347351</v>
+        <v>5.988623733129767</v>
       </c>
       <c r="F25">
-        <v>44.56161229732374</v>
+        <v>46.15718549052902</v>
       </c>
       <c r="G25">
-        <v>1.850979227442231</v>
+        <v>2.149369556690042</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>34.200048572957</v>
       </c>
       <c r="J25">
-        <v>13.44035618798861</v>
+        <v>6.21241850468716</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.37303711326952</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.607775389755437</v>
       </c>
       <c r="M25">
-        <v>101.5922746762404</v>
+        <v>16.84625984487578</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>39.55313949985454</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.573849934112692</v>
+        <v>5.210353775561958</v>
       </c>
       <c r="D2">
-        <v>1.997906030188858</v>
+        <v>3.450527141762511</v>
       </c>
       <c r="E2">
-        <v>5.994031117141438</v>
+        <v>10.93110129502653</v>
       </c>
       <c r="F2">
-        <v>44.76059836573022</v>
+        <v>59.8722537255562</v>
       </c>
       <c r="G2">
-        <v>2.165946388478852</v>
+        <v>3.822713803814603</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>33.30002352069858</v>
+        <v>45.682131256778</v>
       </c>
       <c r="J2">
-        <v>6.279684394050367</v>
+        <v>10.83401815670579</v>
       </c>
       <c r="K2">
-        <v>20.76558931762748</v>
+        <v>24.42152460772722</v>
       </c>
       <c r="L2">
-        <v>5.662712300447499</v>
+        <v>9.982457703458961</v>
       </c>
       <c r="M2">
-        <v>15.97093380120506</v>
+        <v>23.15127998607431</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.501290519198806</v>
+        <v>5.211240742280411</v>
       </c>
       <c r="D3">
-        <v>2.06582605109323</v>
+        <v>3.444814729235012</v>
       </c>
       <c r="E3">
-        <v>6.001440144940997</v>
+        <v>10.94966520184082</v>
       </c>
       <c r="F3">
-        <v>43.88177979210608</v>
+        <v>59.87336905896592</v>
       </c>
       <c r="G3">
-        <v>2.177459712267835</v>
+        <v>3.826767815703504</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>32.74229415504538</v>
+        <v>45.70349656751561</v>
       </c>
       <c r="J3">
-        <v>6.328501342021488</v>
+        <v>10.85636376982253</v>
       </c>
       <c r="K3">
-        <v>19.63836983368243</v>
+        <v>24.26149337509169</v>
       </c>
       <c r="L3">
-        <v>5.702095454658858</v>
+        <v>10.00018220333386</v>
       </c>
       <c r="M3">
-        <v>15.37492628739167</v>
+        <v>23.11722727482594</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.456470354947334</v>
+        <v>5.212374089271477</v>
       </c>
       <c r="D4">
-        <v>2.107456990303534</v>
+        <v>3.441300861817885</v>
       </c>
       <c r="E4">
-        <v>6.007788480413646</v>
+        <v>10.96201001890031</v>
       </c>
       <c r="F4">
-        <v>43.37430011934333</v>
+        <v>59.88653268077849</v>
       </c>
       <c r="G4">
-        <v>2.184687434942801</v>
+        <v>3.829385371300183</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.42438207270564</v>
+        <v>45.72570147766792</v>
       </c>
       <c r="J4">
-        <v>6.360062573939768</v>
+        <v>10.87094858669858</v>
       </c>
       <c r="K4">
-        <v>18.92891054603506</v>
+        <v>24.16886140522782</v>
       </c>
       <c r="L4">
-        <v>5.727364233232189</v>
+        <v>10.01172467129171</v>
       </c>
       <c r="M4">
-        <v>15.0085405881727</v>
+        <v>23.10091315669994</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.438160403061396</v>
+        <v>5.212984902565863</v>
       </c>
       <c r="D5">
-        <v>2.124426560764206</v>
+        <v>3.439867211489632</v>
       </c>
       <c r="E5">
-        <v>6.010821346488435</v>
+        <v>10.96727920275144</v>
       </c>
       <c r="F5">
-        <v>43.17539278758897</v>
+        <v>59.89502715709324</v>
       </c>
       <c r="G5">
-        <v>2.187675459776826</v>
+        <v>3.830484452589298</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.30082071724446</v>
+        <v>45.73702863975723</v>
       </c>
       <c r="J5">
-        <v>6.373322494222513</v>
+        <v>10.8771098840965</v>
       </c>
       <c r="K5">
-        <v>18.63571439200974</v>
+        <v>24.13256222082591</v>
       </c>
       <c r="L5">
-        <v>5.737938446387631</v>
+        <v>10.01659464772559</v>
       </c>
       <c r="M5">
-        <v>14.85929592240946</v>
+        <v>23.09542574662721</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.43511800071542</v>
+        <v>5.213095351323957</v>
       </c>
       <c r="D6">
-        <v>2.127245259947787</v>
+        <v>3.439629048049298</v>
       </c>
       <c r="E6">
-        <v>6.011351697050969</v>
+        <v>10.9681685723997</v>
       </c>
       <c r="F6">
-        <v>43.14283575735921</v>
+        <v>59.89662645855683</v>
       </c>
       <c r="G6">
-        <v>2.188174274317403</v>
+        <v>3.83066891511907</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.28065992455307</v>
+        <v>45.73904691621627</v>
       </c>
       <c r="J6">
-        <v>6.375548343546296</v>
+        <v>10.87814613542522</v>
       </c>
       <c r="K6">
-        <v>18.58679206767042</v>
+        <v>24.12662323452361</v>
       </c>
       <c r="L6">
-        <v>5.739711115800509</v>
+        <v>10.01741336338042</v>
       </c>
       <c r="M6">
-        <v>14.83452300132108</v>
+        <v>23.09458481424198</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.456223573299056</v>
+        <v>5.212381722541632</v>
       </c>
       <c r="D7">
-        <v>2.107685800187999</v>
+        <v>3.441281534189074</v>
       </c>
       <c r="E7">
-        <v>6.007827585753148</v>
+        <v>10.96208011423888</v>
       </c>
       <c r="F7">
-        <v>43.37158586448128</v>
+        <v>59.88663457783782</v>
       </c>
       <c r="G7">
-        <v>2.184727556160554</v>
+        <v>3.829400062520004</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.42269166608106</v>
+        <v>45.72584502358313</v>
       </c>
       <c r="J7">
-        <v>6.360239789262579</v>
+        <v>10.87103079735424</v>
       </c>
       <c r="K7">
-        <v>18.92497252713099</v>
+        <v>24.16836595146412</v>
       </c>
       <c r="L7">
-        <v>5.727505714709954</v>
+        <v>10.01178967541492</v>
       </c>
       <c r="M7">
-        <v>15.00652733690594</v>
+        <v>23.10083444532227</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.548899665842753</v>
+        <v>5.210537964274008</v>
       </c>
       <c r="D8">
-        <v>2.021354085009322</v>
+        <v>3.4485587681115</v>
       </c>
       <c r="E8">
-        <v>5.996208260435547</v>
+        <v>10.93730602219883</v>
       </c>
       <c r="F8">
-        <v>44.45080716674899</v>
+        <v>59.87004412979686</v>
       </c>
       <c r="G8">
-        <v>2.169885052587182</v>
+        <v>3.824085058083996</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>33.10251876634727</v>
+        <v>45.68760851492746</v>
       </c>
       <c r="J8">
-        <v>6.296186511405737</v>
+        <v>10.8415437790844</v>
       </c>
       <c r="K8">
-        <v>20.38066633237215</v>
+        <v>24.36519885334603</v>
       </c>
       <c r="L8">
-        <v>5.676068133778001</v>
+        <v>9.988432507792352</v>
       </c>
       <c r="M8">
-        <v>15.76561523935725</v>
+        <v>23.13858853676961</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.727671315493704</v>
+        <v>5.211553090639605</v>
       </c>
       <c r="D9">
-        <v>1.850365303292782</v>
+        <v>3.462784137234998</v>
       </c>
       <c r="E9">
-        <v>5.988018636687094</v>
+        <v>10.89620929394223</v>
       </c>
       <c r="F9">
-        <v>46.83029439185412</v>
+        <v>59.93680835910526</v>
       </c>
       <c r="G9">
-        <v>2.141896491107526</v>
+        <v>3.814675253905113</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>34.63844008112791</v>
+        <v>45.68497704840991</v>
       </c>
       <c r="J9">
-        <v>6.183217753980308</v>
+        <v>10.79055792857102</v>
       </c>
       <c r="K9">
-        <v>23.0892404587125</v>
+        <v>24.79424185984761</v>
       </c>
       <c r="L9">
-        <v>5.583654795311997</v>
+        <v>9.947840890349225</v>
       </c>
       <c r="M9">
-        <v>17.24459292088906</v>
+        <v>23.24880780221938</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.856304502411754</v>
+        <v>5.215066859548481</v>
       </c>
       <c r="D10">
-        <v>1.722009032034849</v>
+        <v>3.473217158810878</v>
       </c>
       <c r="E10">
-        <v>5.991389469239076</v>
+        <v>10.87054512237487</v>
       </c>
       <c r="F10">
-        <v>48.75147664785987</v>
+        <v>60.04669562556217</v>
       </c>
       <c r="G10">
-        <v>2.121796641180095</v>
+        <v>3.808371381346531</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>35.9023091806007</v>
+        <v>45.72744672495444</v>
       </c>
       <c r="J10">
-        <v>6.108009039617217</v>
+        <v>10.75723757667303</v>
       </c>
       <c r="K10">
-        <v>24.98380732493608</v>
+        <v>25.13342158672401</v>
       </c>
       <c r="L10">
-        <v>5.520653956406797</v>
+        <v>9.921165592951098</v>
       </c>
       <c r="M10">
-        <v>18.3192613196201</v>
+        <v>23.35143505343438</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.914111080086382</v>
+        <v>5.217254298672336</v>
       </c>
       <c r="D11">
-        <v>1.662609354224063</v>
+        <v>3.477961594618162</v>
       </c>
       <c r="E11">
-        <v>5.995084099341268</v>
+        <v>10.85984629960447</v>
       </c>
       <c r="F11">
-        <v>49.66632130542096</v>
+        <v>60.10992614449798</v>
       </c>
       <c r="G11">
-        <v>2.112697418053417</v>
+        <v>3.805634229278269</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>36.50958613955347</v>
+        <v>45.75645245511228</v>
       </c>
       <c r="J11">
-        <v>6.07551366895867</v>
+        <v>10.74297175209024</v>
       </c>
       <c r="K11">
-        <v>25.83066352003544</v>
+        <v>25.29240337700695</v>
       </c>
       <c r="L11">
-        <v>5.492992734178242</v>
+        <v>9.909707405561059</v>
       </c>
       <c r="M11">
-        <v>18.80493171803487</v>
+        <v>23.40272028833078</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.935893434586291</v>
+        <v>5.218166260582795</v>
       </c>
       <c r="D12">
-        <v>1.639933885557571</v>
+        <v>3.479758123105212</v>
       </c>
       <c r="E12">
-        <v>5.99680549534219</v>
+        <v>10.85593470739314</v>
       </c>
       <c r="F12">
-        <v>50.01896123230996</v>
+        <v>60.13577331821378</v>
       </c>
       <c r="G12">
-        <v>2.109252790584495</v>
+        <v>3.804616377032661</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>36.74447460811216</v>
+        <v>45.7688306308517</v>
       </c>
       <c r="J12">
-        <v>6.063458707098923</v>
+        <v>10.73769741919509</v>
       </c>
       <c r="K12">
-        <v>26.18933490872874</v>
+        <v>25.35323364534144</v>
       </c>
       <c r="L12">
-        <v>5.482655883015583</v>
+        <v>9.905465288832843</v>
       </c>
       <c r="M12">
-        <v>18.98837510052189</v>
+        <v>23.42279202282653</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.93120705561813</v>
+        <v>5.217966151271463</v>
       </c>
       <c r="D13">
-        <v>1.644826162375899</v>
+        <v>3.479371210044909</v>
       </c>
       <c r="E13">
-        <v>5.996420228067918</v>
+        <v>10.85677092848309</v>
       </c>
       <c r="F13">
-        <v>49.9427318504431</v>
+        <v>60.13012205984209</v>
       </c>
       <c r="G13">
-        <v>2.109994698319105</v>
+        <v>3.804834762255851</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>36.69366322123937</v>
+        <v>45.76610274337351</v>
       </c>
       <c r="J13">
-        <v>6.066043763665805</v>
+        <v>10.73882766256687</v>
       </c>
       <c r="K13">
-        <v>26.11231321511268</v>
+        <v>25.34010561273706</v>
       </c>
       <c r="L13">
-        <v>5.484876074677681</v>
+        <v>9.906374604029414</v>
       </c>
       <c r="M13">
-        <v>18.94888790571089</v>
+        <v>23.4184404282249</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.91590530557091</v>
+        <v>5.217327656549588</v>
       </c>
       <c r="D14">
-        <v>1.660747698256292</v>
+        <v>3.478109396982606</v>
       </c>
       <c r="E14">
-        <v>5.995219188846408</v>
+        <v>10.85952169132679</v>
       </c>
       <c r="F14">
-        <v>49.69520666352949</v>
+        <v>60.11201447760391</v>
       </c>
       <c r="G14">
-        <v>2.112414038407034</v>
+        <v>3.805550116914803</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>36.52881009488615</v>
+        <v>45.75744286579123</v>
       </c>
       <c r="J14">
-        <v>6.0745168610517</v>
+        <v>10.74253527007197</v>
       </c>
       <c r="K14">
-        <v>25.86027324877872</v>
+        <v>25.2973956185111</v>
       </c>
       <c r="L14">
-        <v>5.492139587090262</v>
+        <v>9.909356465524695</v>
       </c>
       <c r="M14">
-        <v>18.820033041679</v>
+        <v>23.40435861398228</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.90651840778882</v>
+        <v>5.216947418515915</v>
       </c>
       <c r="D15">
-        <v>1.670475251998006</v>
+        <v>3.47733649317285</v>
       </c>
       <c r="E15">
-        <v>5.994525859040781</v>
+        <v>10.86122480629435</v>
       </c>
       <c r="F15">
-        <v>49.54440970309489</v>
+        <v>60.10117084443421</v>
       </c>
       <c r="G15">
-        <v>2.113895921056542</v>
+        <v>3.805990717256898</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>36.42848322637012</v>
+        <v>45.75232005033322</v>
       </c>
       <c r="J15">
-        <v>6.079739590814837</v>
+        <v>10.74482292125712</v>
       </c>
       <c r="K15">
-        <v>25.71475914743273</v>
+        <v>25.27131480547907</v>
       </c>
       <c r="L15">
-        <v>5.496606472028351</v>
+        <v>9.911195541677785</v>
       </c>
       <c r="M15">
-        <v>18.74104495342091</v>
+        <v>23.39581757434491</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.852511853169282</v>
+        <v>5.214935666402508</v>
       </c>
       <c r="D16">
-        <v>1.725867518421796</v>
+        <v>3.472907078723485</v>
       </c>
       <c r="E16">
-        <v>5.991192461719825</v>
+        <v>10.87126390956282</v>
       </c>
       <c r="F16">
-        <v>48.69253878821736</v>
+        <v>60.04282977960229</v>
       </c>
       <c r="G16">
-        <v>2.122391749125884</v>
+        <v>3.808552876663381</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>35.86329552011311</v>
+        <v>45.72574619243635</v>
       </c>
       <c r="J16">
-        <v>6.110167518735135</v>
+        <v>10.75818779137573</v>
       </c>
       <c r="K16">
-        <v>24.92842551132169</v>
+        <v>25.12312210340685</v>
       </c>
       <c r="L16">
-        <v>5.522481295476473</v>
+        <v>9.92192798884825</v>
       </c>
       <c r="M16">
-        <v>18.28745556665877</v>
+        <v>23.34817513606562</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.819193594566773</v>
+        <v>5.213851624274417</v>
       </c>
       <c r="D17">
-        <v>1.759564723916084</v>
+        <v>3.470189467059274</v>
       </c>
       <c r="E17">
-        <v>5.989708868102894</v>
+        <v>10.87767216542769</v>
       </c>
       <c r="F17">
-        <v>48.18063012470757</v>
+        <v>60.01043088867449</v>
       </c>
       <c r="G17">
-        <v>2.127611437902379</v>
+        <v>3.81015802034438</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>35.52503673777631</v>
+        <v>45.7119262233429</v>
       </c>
       <c r="J17">
-        <v>6.12927611277132</v>
+        <v>10.76661481658731</v>
       </c>
       <c r="K17">
-        <v>24.44076050798555</v>
+        <v>25.03337830524083</v>
       </c>
       <c r="L17">
-        <v>5.5386064528268</v>
+        <v>9.928684964605099</v>
       </c>
       <c r="M17">
-        <v>18.00835499544681</v>
+        <v>23.3201190290288</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.799963158658334</v>
+        <v>5.213283617618595</v>
       </c>
       <c r="D18">
-        <v>1.778853783027552</v>
+        <v>3.468626209292959</v>
       </c>
       <c r="E18">
-        <v>5.989058204731745</v>
+        <v>10.88144991548701</v>
       </c>
       <c r="F18">
-        <v>47.8900194909192</v>
+        <v>59.99304250476685</v>
       </c>
       <c r="G18">
-        <v>2.130618190767103</v>
+        <v>3.811093547986154</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>35.33350422907566</v>
+        <v>45.70488901919416</v>
       </c>
       <c r="J18">
-        <v>6.140428283400088</v>
+        <v>10.77154578050282</v>
       </c>
       <c r="K18">
-        <v>24.1583100538039</v>
+        <v>24.98220410140492</v>
       </c>
       <c r="L18">
-        <v>5.547975541851145</v>
+        <v>9.932635103242573</v>
       </c>
       <c r="M18">
-        <v>17.84752066761786</v>
+        <v>23.30441549724481</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.793440854123536</v>
+        <v>5.213100865821709</v>
       </c>
       <c r="D19">
-        <v>1.785369895788348</v>
+        <v>3.468096885443205</v>
       </c>
       <c r="E19">
-        <v>5.988872378294999</v>
+        <v>10.88274479491272</v>
       </c>
       <c r="F19">
-        <v>47.79227181775439</v>
+        <v>59.98736920489053</v>
       </c>
       <c r="G19">
-        <v>2.131637154014322</v>
+        <v>3.811412416286882</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>35.26916642657974</v>
+        <v>45.70266286105503</v>
       </c>
       <c r="J19">
-        <v>6.144231848902952</v>
+        <v>10.77322975326986</v>
       </c>
       <c r="K19">
-        <v>24.06233960756073</v>
+        <v>24.96495506777554</v>
       </c>
       <c r="L19">
-        <v>5.551164118726002</v>
+        <v>9.93398350700361</v>
       </c>
       <c r="M19">
-        <v>17.79301375871881</v>
+        <v>23.29917332320986</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.822747332666206</v>
+        <v>5.213961285484084</v>
       </c>
       <c r="D20">
-        <v>1.755987451279267</v>
+        <v>3.470478776940964</v>
       </c>
       <c r="E20">
-        <v>5.989845745270328</v>
+        <v>10.87698048907228</v>
       </c>
       <c r="F20">
-        <v>48.23472555976117</v>
+        <v>60.01375078955189</v>
       </c>
       <c r="G20">
-        <v>2.127055361051428</v>
+        <v>3.809985878808201</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>35.56073002371243</v>
+        <v>45.71330301342027</v>
       </c>
       <c r="J20">
-        <v>6.127225242695499</v>
+        <v>10.76570905862071</v>
       </c>
       <c r="K20">
-        <v>24.49287564053403</v>
+        <v>25.04288606277357</v>
       </c>
       <c r="L20">
-        <v>5.536880179353741</v>
+        <v>9.927959082952222</v>
       </c>
       <c r="M20">
-        <v>18.03809727759286</v>
+        <v>23.32306084580533</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.920402750623495</v>
+        <v>5.217512936985655</v>
       </c>
       <c r="D21">
-        <v>1.656076404000964</v>
+        <v>3.478480023235313</v>
       </c>
       <c r="E21">
-        <v>5.99556311669781</v>
+        <v>10.85870993505657</v>
       </c>
       <c r="F21">
-        <v>49.76773937270662</v>
+        <v>60.11728147991566</v>
       </c>
       <c r="G21">
-        <v>2.11170343696564</v>
+        <v>3.805339494764336</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>36.57709534804516</v>
+        <v>45.75994863329897</v>
       </c>
       <c r="J21">
-        <v>6.072021282521116</v>
+        <v>10.74144278997641</v>
       </c>
       <c r="K21">
-        <v>25.93444104694011</v>
+        <v>25.30992393109356</v>
       </c>
       <c r="L21">
-        <v>5.490002424362437</v>
+        <v>9.908477995488726</v>
       </c>
       <c r="M21">
-        <v>18.85789346449954</v>
+        <v>23.40847719838621</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.983598439372886</v>
+        <v>5.220321072042624</v>
       </c>
       <c r="D22">
-        <v>1.58969885502825</v>
+        <v>3.483708868077945</v>
       </c>
       <c r="E22">
-        <v>6.001184873307796</v>
+        <v>10.84758380917927</v>
       </c>
       <c r="F22">
-        <v>50.8060426570043</v>
+        <v>60.19603601902589</v>
       </c>
       <c r="G22">
-        <v>2.101673190444047</v>
+        <v>3.802411452888244</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>37.27022309385575</v>
+        <v>45.79856143118973</v>
       </c>
       <c r="J22">
-        <v>6.037403548243348</v>
+        <v>10.72632825737393</v>
       </c>
       <c r="K22">
-        <v>26.96912620913609</v>
+        <v>25.48808278050327</v>
       </c>
       <c r="L22">
-        <v>5.460165532818021</v>
+        <v>9.896310295942174</v>
       </c>
       <c r="M22">
-        <v>19.39096454315363</v>
+        <v>23.46809170954537</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.949928002117424</v>
+        <v>5.218778123398041</v>
       </c>
       <c r="D23">
-        <v>1.625237320585403</v>
+        <v>3.480918125592152</v>
       </c>
       <c r="E23">
-        <v>5.998007761929079</v>
+        <v>10.85344765431399</v>
       </c>
       <c r="F23">
-        <v>50.24842399736809</v>
+        <v>60.15298920445264</v>
       </c>
       <c r="G23">
-        <v>2.10702818423416</v>
+        <v>3.803964302873708</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>36.89754240984033</v>
+        <v>45.77720919943354</v>
       </c>
       <c r="J23">
-        <v>6.055744665373683</v>
+        <v>10.73432714580449</v>
       </c>
       <c r="K23">
-        <v>26.41953593839835</v>
+        <v>25.39267919537489</v>
       </c>
       <c r="L23">
-        <v>5.476018841270512</v>
+        <v>9.902752934052442</v>
       </c>
       <c r="M23">
-        <v>19.10669578033919</v>
+        <v>23.43593112824383</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.821140921800178</v>
+        <v>5.213911535560995</v>
       </c>
       <c r="D24">
-        <v>1.757604994848671</v>
+        <v>3.470347982653645</v>
       </c>
       <c r="E24">
-        <v>5.989783233915746</v>
+        <v>10.87729290449993</v>
       </c>
       <c r="F24">
-        <v>48.21025753622243</v>
+        <v>60.01224600568115</v>
       </c>
       <c r="G24">
-        <v>2.127306744675017</v>
+        <v>3.810063664401439</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>35.54458396138288</v>
+        <v>45.71267773828437</v>
       </c>
       <c r="J24">
-        <v>6.128151923050453</v>
+        <v>10.76611828341321</v>
       </c>
       <c r="K24">
-        <v>24.4693208892023</v>
+        <v>25.03858629167325</v>
       </c>
       <c r="L24">
-        <v>5.537660320298398</v>
+        <v>9.928287050111148</v>
       </c>
       <c r="M24">
-        <v>18.02465196084788</v>
+        <v>23.32172952184706</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.679731312646688</v>
+        <v>5.2107883215903</v>
       </c>
       <c r="D25">
-        <v>1.896970259581748</v>
+        <v>3.458939713302871</v>
       </c>
       <c r="E25">
-        <v>5.988623733129767</v>
+        <v>10.90652918561636</v>
       </c>
       <c r="F25">
-        <v>46.15718549052902</v>
+        <v>59.90807855162333</v>
       </c>
       <c r="G25">
-        <v>2.149369556690042</v>
+        <v>3.817113243794968</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.200048572957</v>
+        <v>45.6779088082789</v>
       </c>
       <c r="J25">
-        <v>6.21241850468716</v>
+        <v>10.80362197886674</v>
       </c>
       <c r="K25">
-        <v>22.37303711326952</v>
+        <v>24.67379361160249</v>
       </c>
       <c r="L25">
-        <v>5.607775389755437</v>
+        <v>9.958267145464603</v>
       </c>
       <c r="M25">
-        <v>16.84625984487578</v>
+        <v>23.21515592600442</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.210353775561958</v>
+        <v>2.57384993411277</v>
       </c>
       <c r="D2">
-        <v>3.450527141762511</v>
+        <v>1.997906030188603</v>
       </c>
       <c r="E2">
-        <v>10.93110129502653</v>
+        <v>5.994031117141436</v>
       </c>
       <c r="F2">
-        <v>59.8722537255562</v>
+        <v>44.76059836573001</v>
       </c>
       <c r="G2">
-        <v>3.822713803814603</v>
+        <v>2.165946388479114</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>45.682131256778</v>
+        <v>33.30002352069838</v>
       </c>
       <c r="J2">
-        <v>10.83401815670579</v>
+        <v>6.279684394050309</v>
       </c>
       <c r="K2">
-        <v>24.42152460772722</v>
+        <v>20.76558931762743</v>
       </c>
       <c r="L2">
-        <v>9.982457703458961</v>
+        <v>5.662712300447527</v>
       </c>
       <c r="M2">
-        <v>23.15127998607431</v>
+        <v>15.97093380120498</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.211240742280411</v>
+        <v>2.501290519199113</v>
       </c>
       <c r="D3">
-        <v>3.444814729235012</v>
+        <v>2.065826051093296</v>
       </c>
       <c r="E3">
-        <v>10.94966520184082</v>
+        <v>6.001440144941243</v>
       </c>
       <c r="F3">
-        <v>59.87336905896592</v>
+        <v>43.88177979210618</v>
       </c>
       <c r="G3">
-        <v>3.826767815703504</v>
+        <v>2.177459712267969</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>45.70349656751561</v>
+        <v>32.74229415504551</v>
       </c>
       <c r="J3">
-        <v>10.85636376982253</v>
+        <v>6.328501342021678</v>
       </c>
       <c r="K3">
-        <v>24.26149337509169</v>
+        <v>19.63836983368245</v>
       </c>
       <c r="L3">
-        <v>10.00018220333386</v>
+        <v>5.702095454658922</v>
       </c>
       <c r="M3">
-        <v>23.11722727482594</v>
+        <v>15.37492628739174</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.212374089271477</v>
+        <v>2.456470354947504</v>
       </c>
       <c r="D4">
-        <v>3.441300861817885</v>
+        <v>2.107456990303332</v>
       </c>
       <c r="E4">
-        <v>10.96201001890031</v>
+        <v>6.007788480413581</v>
       </c>
       <c r="F4">
-        <v>59.88653268077849</v>
+        <v>43.37430011934286</v>
       </c>
       <c r="G4">
-        <v>3.829385371300183</v>
+        <v>2.184687434943069</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>45.72570147766792</v>
+        <v>32.4243820727053</v>
       </c>
       <c r="J4">
-        <v>10.87094858669858</v>
+        <v>6.360062573939731</v>
       </c>
       <c r="K4">
-        <v>24.16886140522782</v>
+        <v>18.92891054603499</v>
       </c>
       <c r="L4">
-        <v>10.01172467129171</v>
+        <v>5.727364233232059</v>
       </c>
       <c r="M4">
-        <v>23.10091315669994</v>
+        <v>15.00854058817262</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.212984902565863</v>
+        <v>2.438160403061579</v>
       </c>
       <c r="D5">
-        <v>3.439867211489632</v>
+        <v>2.124426560764077</v>
       </c>
       <c r="E5">
-        <v>10.96727920275144</v>
+        <v>6.010821346488558</v>
       </c>
       <c r="F5">
-        <v>59.89502715709324</v>
+        <v>43.1753927875889</v>
       </c>
       <c r="G5">
-        <v>3.830484452589298</v>
+        <v>2.187675459776825</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>45.73702863975723</v>
+        <v>32.30082071724444</v>
       </c>
       <c r="J5">
-        <v>10.8771098840965</v>
+        <v>6.373322494222515</v>
       </c>
       <c r="K5">
-        <v>24.13256222082591</v>
+        <v>18.6357143920097</v>
       </c>
       <c r="L5">
-        <v>10.01659464772559</v>
+        <v>5.7379384463876</v>
       </c>
       <c r="M5">
-        <v>23.09542574662721</v>
+        <v>14.85929592240946</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.213095351323957</v>
+        <v>2.435118000715322</v>
       </c>
       <c r="D6">
-        <v>3.439629048049298</v>
+        <v>2.127245259947986</v>
       </c>
       <c r="E6">
-        <v>10.9681685723997</v>
+        <v>6.011351697051036</v>
       </c>
       <c r="F6">
-        <v>59.89662645855683</v>
+        <v>43.14283575735905</v>
       </c>
       <c r="G6">
-        <v>3.83066891511907</v>
+        <v>2.188174274317531</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>45.73904691621627</v>
+        <v>32.28065992455299</v>
       </c>
       <c r="J6">
-        <v>10.87814613542522</v>
+        <v>6.375548343546325</v>
       </c>
       <c r="K6">
-        <v>24.12662323452361</v>
+        <v>18.58679206767038</v>
       </c>
       <c r="L6">
-        <v>10.01741336338042</v>
+        <v>5.739711115800443</v>
       </c>
       <c r="M6">
-        <v>23.09458481424198</v>
+        <v>14.83452300132103</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.212381722541632</v>
+        <v>2.456223573298948</v>
       </c>
       <c r="D7">
-        <v>3.441281534189074</v>
+        <v>2.107685800187999</v>
       </c>
       <c r="E7">
-        <v>10.96208011423888</v>
+        <v>6.007827585753021</v>
       </c>
       <c r="F7">
-        <v>59.88663457783782</v>
+        <v>43.37158586448118</v>
       </c>
       <c r="G7">
-        <v>3.829400062520004</v>
+        <v>2.184727556160824</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>45.72584502358313</v>
+        <v>32.42269166608097</v>
       </c>
       <c r="J7">
-        <v>10.87103079735424</v>
+        <v>6.360239789262548</v>
       </c>
       <c r="K7">
-        <v>24.16836595146412</v>
+        <v>18.92497252713093</v>
       </c>
       <c r="L7">
-        <v>10.01178967541492</v>
+        <v>5.72750571470989</v>
       </c>
       <c r="M7">
-        <v>23.10083444532227</v>
+        <v>15.00652733690584</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.210537964274008</v>
+        <v>2.54889966584274</v>
       </c>
       <c r="D8">
-        <v>3.4485587681115</v>
+        <v>2.021354085009587</v>
       </c>
       <c r="E8">
-        <v>10.93730602219883</v>
+        <v>5.996208260435484</v>
       </c>
       <c r="F8">
-        <v>59.87004412979686</v>
+        <v>44.45080716674926</v>
       </c>
       <c r="G8">
-        <v>3.824085058083996</v>
+        <v>2.169885052587185</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>45.68760851492746</v>
+        <v>33.10251876634756</v>
       </c>
       <c r="J8">
-        <v>10.8415437790844</v>
+        <v>6.296186511405804</v>
       </c>
       <c r="K8">
-        <v>24.36519885334603</v>
+        <v>20.38066633237223</v>
       </c>
       <c r="L8">
-        <v>9.988432507792352</v>
+        <v>5.676068133777913</v>
       </c>
       <c r="M8">
-        <v>23.13858853676961</v>
+        <v>15.76561523935734</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.211553090639605</v>
+        <v>2.727671315493747</v>
       </c>
       <c r="D9">
-        <v>3.462784137234998</v>
+        <v>1.850365303292653</v>
       </c>
       <c r="E9">
-        <v>10.89620929394223</v>
+        <v>5.988018636687095</v>
       </c>
       <c r="F9">
-        <v>59.93680835910526</v>
+        <v>46.8302943918541</v>
       </c>
       <c r="G9">
-        <v>3.814675253905113</v>
+        <v>2.141896491107393</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>45.68497704840991</v>
+        <v>34.63844008112788</v>
       </c>
       <c r="J9">
-        <v>10.79055792857102</v>
+        <v>6.183217753980344</v>
       </c>
       <c r="K9">
-        <v>24.79424185984761</v>
+        <v>23.08924045871248</v>
       </c>
       <c r="L9">
-        <v>9.947840890349225</v>
+        <v>5.583654795311972</v>
       </c>
       <c r="M9">
-        <v>23.24880780221938</v>
+        <v>17.244592920889</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.215066859548481</v>
+        <v>2.856304502411908</v>
       </c>
       <c r="D10">
-        <v>3.473217158810878</v>
+        <v>1.722009032034908</v>
       </c>
       <c r="E10">
-        <v>10.87054512237487</v>
+        <v>5.991389469239174</v>
       </c>
       <c r="F10">
-        <v>60.04669562556217</v>
+        <v>48.75147664785997</v>
       </c>
       <c r="G10">
-        <v>3.808371381346531</v>
+        <v>2.121796641179962</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>45.72744672495444</v>
+        <v>35.90230918060085</v>
       </c>
       <c r="J10">
-        <v>10.75723757667303</v>
+        <v>6.108009039617356</v>
       </c>
       <c r="K10">
-        <v>25.13342158672401</v>
+        <v>24.9838073249361</v>
       </c>
       <c r="L10">
-        <v>9.921165592951098</v>
+        <v>5.52065395640679</v>
       </c>
       <c r="M10">
-        <v>23.35143505343438</v>
+        <v>18.31926131962017</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.217254298672336</v>
+        <v>2.914111080086429</v>
       </c>
       <c r="D11">
-        <v>3.477961594618162</v>
+        <v>1.662609354224063</v>
       </c>
       <c r="E11">
-        <v>10.85984629960447</v>
+        <v>5.995084099341208</v>
       </c>
       <c r="F11">
-        <v>60.10992614449798</v>
+        <v>49.66632130542078</v>
       </c>
       <c r="G11">
-        <v>3.805634229278269</v>
+        <v>2.112697418053542</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>45.75645245511228</v>
+        <v>36.50958613955335</v>
       </c>
       <c r="J11">
-        <v>10.74297175209024</v>
+        <v>6.075513668958638</v>
       </c>
       <c r="K11">
-        <v>25.29240337700695</v>
+        <v>25.83066352003544</v>
       </c>
       <c r="L11">
-        <v>9.909707405561059</v>
+        <v>5.492992734178212</v>
       </c>
       <c r="M11">
-        <v>23.40272028833078</v>
+        <v>18.80493171803484</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.218166260582795</v>
+        <v>2.935893434586111</v>
       </c>
       <c r="D12">
-        <v>3.479758123105212</v>
+        <v>1.639933885557376</v>
       </c>
       <c r="E12">
-        <v>10.85593470739314</v>
+        <v>5.996805495342145</v>
       </c>
       <c r="F12">
-        <v>60.13577331821378</v>
+        <v>50.01896123231001</v>
       </c>
       <c r="G12">
-        <v>3.804616377032661</v>
+        <v>2.109252790584494</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>45.7688306308517</v>
+        <v>36.74447460811216</v>
       </c>
       <c r="J12">
-        <v>10.73769741919509</v>
+        <v>6.063458707098923</v>
       </c>
       <c r="K12">
-        <v>25.35323364534144</v>
+        <v>26.18933490872876</v>
       </c>
       <c r="L12">
-        <v>9.905465288832843</v>
+        <v>5.482655883015699</v>
       </c>
       <c r="M12">
-        <v>23.42279202282653</v>
+        <v>18.98837510052185</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.217966151271463</v>
+        <v>2.931207055618292</v>
       </c>
       <c r="D13">
-        <v>3.479371210044909</v>
+        <v>1.644826162375833</v>
       </c>
       <c r="E13">
-        <v>10.85677092848309</v>
+        <v>5.996420228067861</v>
       </c>
       <c r="F13">
-        <v>60.13012205984209</v>
+        <v>49.94273185044321</v>
       </c>
       <c r="G13">
-        <v>3.804834762255851</v>
+        <v>2.109994698319371</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>45.76610274337351</v>
+        <v>36.69366322123943</v>
       </c>
       <c r="J13">
-        <v>10.73882766256687</v>
+        <v>6.066043763665774</v>
       </c>
       <c r="K13">
-        <v>25.34010561273706</v>
+        <v>26.11231321511273</v>
       </c>
       <c r="L13">
-        <v>9.906374604029414</v>
+        <v>5.484876074677642</v>
       </c>
       <c r="M13">
-        <v>23.4184404282249</v>
+        <v>18.94888790571087</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.217327656549588</v>
+        <v>2.915905305570794</v>
       </c>
       <c r="D14">
-        <v>3.478109396982606</v>
+        <v>1.6607476982565</v>
       </c>
       <c r="E14">
-        <v>10.85952169132679</v>
+        <v>5.995219188846241</v>
       </c>
       <c r="F14">
-        <v>60.11201447760391</v>
+        <v>49.69520666352939</v>
       </c>
       <c r="G14">
-        <v>3.805550116914803</v>
+        <v>2.112414038406897</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>45.75744286579123</v>
+        <v>36.52881009488605</v>
       </c>
       <c r="J14">
-        <v>10.74253527007197</v>
+        <v>6.074516861051676</v>
       </c>
       <c r="K14">
-        <v>25.2973956185111</v>
+        <v>25.86027324877874</v>
       </c>
       <c r="L14">
-        <v>9.909356465524695</v>
+        <v>5.492139587090147</v>
       </c>
       <c r="M14">
-        <v>23.40435861398228</v>
+        <v>18.82003304167898</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.216947418515915</v>
+        <v>2.906518407788805</v>
       </c>
       <c r="D15">
-        <v>3.47733649317285</v>
+        <v>1.670475251997941</v>
       </c>
       <c r="E15">
-        <v>10.86122480629435</v>
+        <v>5.994525859040883</v>
       </c>
       <c r="F15">
-        <v>60.10117084443421</v>
+        <v>49.54440970309475</v>
       </c>
       <c r="G15">
-        <v>3.805990717256898</v>
+        <v>2.113895921056803</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>45.75232005033322</v>
+        <v>36.42848322637001</v>
       </c>
       <c r="J15">
-        <v>10.74482292125712</v>
+        <v>6.0797395908149</v>
       </c>
       <c r="K15">
-        <v>25.27131480547907</v>
+        <v>25.71475914743273</v>
       </c>
       <c r="L15">
-        <v>9.911195541677785</v>
+        <v>5.49660647202844</v>
       </c>
       <c r="M15">
-        <v>23.39581757434491</v>
+        <v>18.74104495342088</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.214935666402508</v>
+        <v>2.852511853169563</v>
       </c>
       <c r="D16">
-        <v>3.472907078723485</v>
+        <v>1.725867518421794</v>
       </c>
       <c r="E16">
-        <v>10.87126390956282</v>
+        <v>5.991192461719822</v>
       </c>
       <c r="F16">
-        <v>60.04282977960229</v>
+        <v>48.69253878821718</v>
       </c>
       <c r="G16">
-        <v>3.808552876663381</v>
+        <v>2.122391749126283</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.72574619243635</v>
+        <v>35.86329552011302</v>
       </c>
       <c r="J16">
-        <v>10.75818779137573</v>
+        <v>6.110167518735095</v>
       </c>
       <c r="K16">
-        <v>25.12312210340685</v>
+        <v>24.92842551132168</v>
       </c>
       <c r="L16">
-        <v>9.92192798884825</v>
+        <v>5.522481295476291</v>
       </c>
       <c r="M16">
-        <v>23.34817513606562</v>
+        <v>18.28745556665874</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.213851624274417</v>
+        <v>2.819193594567061</v>
       </c>
       <c r="D17">
-        <v>3.470189467059274</v>
+        <v>1.759564723916084</v>
       </c>
       <c r="E17">
-        <v>10.87767216542769</v>
+        <v>5.989708868103064</v>
       </c>
       <c r="F17">
-        <v>60.01043088867449</v>
+        <v>48.1806301247076</v>
       </c>
       <c r="G17">
-        <v>3.81015802034438</v>
+        <v>2.127611437902248</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>45.7119262233429</v>
+        <v>35.52503673777638</v>
       </c>
       <c r="J17">
-        <v>10.76661481658731</v>
+        <v>6.129276112771415</v>
       </c>
       <c r="K17">
-        <v>25.03337830524083</v>
+        <v>24.44076050798556</v>
       </c>
       <c r="L17">
-        <v>9.928684964605099</v>
+        <v>5.538606452826802</v>
       </c>
       <c r="M17">
-        <v>23.3201190290288</v>
+        <v>18.00835499544682</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.213283617618595</v>
+        <v>2.799963158658427</v>
       </c>
       <c r="D18">
-        <v>3.468626209292959</v>
+        <v>1.778853783027684</v>
       </c>
       <c r="E18">
-        <v>10.88144991548701</v>
+        <v>5.989058204731688</v>
       </c>
       <c r="F18">
-        <v>59.99304250476685</v>
+        <v>47.8900194909192</v>
       </c>
       <c r="G18">
-        <v>3.811093547986154</v>
+        <v>2.130618190767103</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>45.70488901919416</v>
+        <v>35.33350422907568</v>
       </c>
       <c r="J18">
-        <v>10.77154578050282</v>
+        <v>6.140428283400087</v>
       </c>
       <c r="K18">
-        <v>24.98220410140492</v>
+        <v>24.1583100538039</v>
       </c>
       <c r="L18">
-        <v>9.932635103242573</v>
+        <v>5.547975541851087</v>
       </c>
       <c r="M18">
-        <v>23.30441549724481</v>
+        <v>17.84752066761786</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.213100865821709</v>
+        <v>2.793440854123405</v>
       </c>
       <c r="D19">
-        <v>3.468096885443205</v>
+        <v>1.785369895788419</v>
       </c>
       <c r="E19">
-        <v>10.88274479491272</v>
+        <v>5.988872378294929</v>
       </c>
       <c r="F19">
-        <v>59.98736920489053</v>
+        <v>47.7922718177543</v>
       </c>
       <c r="G19">
-        <v>3.811412416286882</v>
+        <v>2.131637154014054</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>45.70266286105503</v>
+        <v>35.26916642657969</v>
       </c>
       <c r="J19">
-        <v>10.77322975326986</v>
+        <v>6.144231848903012</v>
       </c>
       <c r="K19">
-        <v>24.96495506777554</v>
+        <v>24.06233960756072</v>
       </c>
       <c r="L19">
-        <v>9.93398350700361</v>
+        <v>5.55116411872609</v>
       </c>
       <c r="M19">
-        <v>23.29917332320986</v>
+        <v>17.79301375871875</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.213961285484084</v>
+        <v>2.822747332666256</v>
       </c>
       <c r="D20">
-        <v>3.470478776940964</v>
+        <v>1.755987451279071</v>
       </c>
       <c r="E20">
-        <v>10.87698048907228</v>
+        <v>5.989845745270336</v>
       </c>
       <c r="F20">
-        <v>60.01375078955189</v>
+        <v>48.23472555976102</v>
       </c>
       <c r="G20">
-        <v>3.809985878808201</v>
+        <v>2.127055361051568</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>45.71330301342027</v>
+        <v>35.5607300237123</v>
       </c>
       <c r="J20">
-        <v>10.76570905862071</v>
+        <v>6.127225242695415</v>
       </c>
       <c r="K20">
-        <v>25.04288606277357</v>
+        <v>24.49287564053403</v>
       </c>
       <c r="L20">
-        <v>9.927959082952222</v>
+        <v>5.536880179353654</v>
       </c>
       <c r="M20">
-        <v>23.32306084580533</v>
+        <v>18.03809727759281</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.217512936985655</v>
+        <v>2.920402750623407</v>
       </c>
       <c r="D21">
-        <v>3.478480023235313</v>
+        <v>1.656076404000964</v>
       </c>
       <c r="E21">
-        <v>10.85870993505657</v>
+        <v>5.995563116697754</v>
       </c>
       <c r="F21">
-        <v>60.11728147991566</v>
+        <v>49.76773937270652</v>
       </c>
       <c r="G21">
-        <v>3.805339494764336</v>
+        <v>2.111703436965245</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>45.75994863329897</v>
+        <v>36.57709534804507</v>
       </c>
       <c r="J21">
-        <v>10.74144278997641</v>
+        <v>6.072021282521059</v>
       </c>
       <c r="K21">
-        <v>25.30992393109356</v>
+        <v>25.93444104694017</v>
       </c>
       <c r="L21">
-        <v>9.908477995488726</v>
+        <v>5.490002424362409</v>
       </c>
       <c r="M21">
-        <v>23.40847719838621</v>
+        <v>18.85789346449952</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.220321072042624</v>
+        <v>2.983598439372958</v>
       </c>
       <c r="D22">
-        <v>3.483708868077945</v>
+        <v>1.589698855028446</v>
       </c>
       <c r="E22">
-        <v>10.84758380917927</v>
+        <v>6.001184873307833</v>
       </c>
       <c r="F22">
-        <v>60.19603601902589</v>
+        <v>50.80604265700416</v>
       </c>
       <c r="G22">
-        <v>3.802411452888244</v>
+        <v>2.101673190443917</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.79856143118973</v>
+        <v>37.27022309385566</v>
       </c>
       <c r="J22">
-        <v>10.72632825737393</v>
+        <v>6.037403548243462</v>
       </c>
       <c r="K22">
-        <v>25.48808278050327</v>
+        <v>26.9691262091361</v>
       </c>
       <c r="L22">
-        <v>9.896310295942174</v>
+        <v>5.460165532818078</v>
       </c>
       <c r="M22">
-        <v>23.46809170954537</v>
+        <v>19.39096454315362</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.218778123398041</v>
+        <v>2.949928002117452</v>
       </c>
       <c r="D23">
-        <v>3.480918125592152</v>
+        <v>1.625237320585199</v>
       </c>
       <c r="E23">
-        <v>10.85344765431399</v>
+        <v>5.998007761929188</v>
       </c>
       <c r="F23">
-        <v>60.15298920445264</v>
+        <v>50.2484239973681</v>
       </c>
       <c r="G23">
-        <v>3.803964302873708</v>
+        <v>2.107028184234435</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>45.77720919943354</v>
+        <v>36.89754240984031</v>
       </c>
       <c r="J23">
-        <v>10.73432714580449</v>
+        <v>6.055744665373679</v>
       </c>
       <c r="K23">
-        <v>25.39267919537489</v>
+        <v>26.41953593839832</v>
       </c>
       <c r="L23">
-        <v>9.902752934052442</v>
+        <v>5.476018841270539</v>
       </c>
       <c r="M23">
-        <v>23.43593112824383</v>
+        <v>19.10669578033921</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.213911535560995</v>
+        <v>2.821140921800334</v>
       </c>
       <c r="D24">
-        <v>3.470347982653645</v>
+        <v>1.757604994848854</v>
       </c>
       <c r="E24">
-        <v>10.87729290449993</v>
+        <v>5.989783233915693</v>
       </c>
       <c r="F24">
-        <v>60.01224600568115</v>
+        <v>48.21025753622256</v>
       </c>
       <c r="G24">
-        <v>3.810063664401439</v>
+        <v>2.127306744675149</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>45.71267773828437</v>
+        <v>35.54458396138303</v>
       </c>
       <c r="J24">
-        <v>10.76611828341321</v>
+        <v>6.128151923050506</v>
       </c>
       <c r="K24">
-        <v>25.03858629167325</v>
+        <v>24.46932088920229</v>
       </c>
       <c r="L24">
-        <v>9.928287050111148</v>
+        <v>5.537660320298276</v>
       </c>
       <c r="M24">
-        <v>23.32172952184706</v>
+        <v>18.02465196084792</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.2107883215903</v>
+        <v>2.679731312646675</v>
       </c>
       <c r="D25">
-        <v>3.458939713302871</v>
+        <v>1.89697025958188</v>
       </c>
       <c r="E25">
-        <v>10.90652918561636</v>
+        <v>5.988623733129705</v>
       </c>
       <c r="F25">
-        <v>59.90807855162333</v>
+        <v>46.15718549052905</v>
       </c>
       <c r="G25">
-        <v>3.817113243794968</v>
+        <v>2.149369556689642</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>45.6779088082789</v>
+        <v>34.20004857295702</v>
       </c>
       <c r="J25">
-        <v>10.80362197886674</v>
+        <v>6.21241850468722</v>
       </c>
       <c r="K25">
-        <v>24.67379361160249</v>
+        <v>22.37303711326952</v>
       </c>
       <c r="L25">
-        <v>9.958267145464603</v>
+        <v>5.607775389755407</v>
       </c>
       <c r="M25">
-        <v>23.21515592600442</v>
+        <v>16.84625984487577</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.57384993411277</v>
+        <v>6.645075064253605</v>
       </c>
       <c r="D2">
-        <v>1.997906030188603</v>
+        <v>6.181724227875258</v>
       </c>
       <c r="E2">
-        <v>5.994031117141436</v>
+        <v>18.42116090842494</v>
       </c>
       <c r="F2">
-        <v>44.76059836573001</v>
+        <v>10.09124769920391</v>
       </c>
       <c r="G2">
-        <v>2.165946388479114</v>
+        <v>17.44792672540476</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4.989856865785049</v>
       </c>
       <c r="I2">
-        <v>33.30002352069838</v>
+        <v>4.89273326231958</v>
       </c>
       <c r="J2">
-        <v>6.279684394050309</v>
+        <v>6.769309616073231</v>
       </c>
       <c r="K2">
-        <v>20.76558931762743</v>
+        <v>11.80755165546388</v>
       </c>
       <c r="L2">
-        <v>5.662712300447527</v>
+        <v>12.14409595919627</v>
       </c>
       <c r="M2">
-        <v>15.97093380120498</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>98.47611829869282</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>10.78485045498547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.501290519199113</v>
+        <v>6.255361727965409</v>
       </c>
       <c r="D3">
-        <v>2.065826051093296</v>
+        <v>6.036998250803439</v>
       </c>
       <c r="E3">
-        <v>6.001440144941243</v>
+        <v>17.18808022869231</v>
       </c>
       <c r="F3">
-        <v>43.88177979210618</v>
+        <v>10.47177054683344</v>
       </c>
       <c r="G3">
-        <v>2.177459712267969</v>
+        <v>16.60080394743267</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.346165020989321</v>
       </c>
       <c r="I3">
-        <v>32.74229415504551</v>
+        <v>4.608510824296351</v>
       </c>
       <c r="J3">
-        <v>6.328501342021678</v>
+        <v>6.858259158668623</v>
       </c>
       <c r="K3">
-        <v>19.63836983368245</v>
+        <v>11.64651119168944</v>
       </c>
       <c r="L3">
-        <v>5.702095454658922</v>
+        <v>11.33027311435496</v>
       </c>
       <c r="M3">
-        <v>15.37492628739174</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>91.3857965982979</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>10.71707982688146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.456470354947504</v>
+        <v>6.004196971159351</v>
       </c>
       <c r="D4">
-        <v>2.107456990303332</v>
+        <v>5.953291854309456</v>
       </c>
       <c r="E4">
-        <v>6.007788480413581</v>
+        <v>16.39497642921822</v>
       </c>
       <c r="F4">
-        <v>43.37430011934286</v>
+        <v>10.77748850510671</v>
       </c>
       <c r="G4">
-        <v>2.184687434943069</v>
+        <v>16.13579795354249</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.955517056195031</v>
       </c>
       <c r="I4">
-        <v>32.4243820727053</v>
+        <v>4.432043473259326</v>
       </c>
       <c r="J4">
-        <v>6.360062573939731</v>
+        <v>6.923954949844403</v>
       </c>
       <c r="K4">
-        <v>18.92891054603499</v>
+        <v>11.56613282293488</v>
       </c>
       <c r="L4">
-        <v>5.727364233232059</v>
+        <v>10.80511374589568</v>
       </c>
       <c r="M4">
-        <v>15.00854058817262</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>86.86435516947817</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>10.70635587450585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.438160403061579</v>
+        <v>5.887788939595618</v>
       </c>
       <c r="D5">
-        <v>2.124426560764077</v>
+        <v>5.918330377916686</v>
       </c>
       <c r="E5">
-        <v>6.010821346488558</v>
+        <v>16.06134354561507</v>
       </c>
       <c r="F5">
-        <v>43.1753927875889</v>
+        <v>10.91071126333976</v>
       </c>
       <c r="G5">
-        <v>2.187675459776825</v>
+        <v>15.94366507016622</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.796678518228323</v>
       </c>
       <c r="I5">
-        <v>32.30082071724444</v>
+        <v>4.359181325962719</v>
       </c>
       <c r="J5">
-        <v>6.373322494222515</v>
+        <v>6.950891801326565</v>
       </c>
       <c r="K5">
-        <v>18.6357143920097</v>
+        <v>11.52853313288966</v>
       </c>
       <c r="L5">
-        <v>5.7379384463876</v>
+        <v>10.58473744751306</v>
       </c>
       <c r="M5">
-        <v>14.85929592240946</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>84.9762374635031</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>10.70266039939461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.435118000715322</v>
+        <v>5.85489983449634</v>
       </c>
       <c r="D6">
-        <v>2.127245259947986</v>
+        <v>5.910117032203843</v>
       </c>
       <c r="E6">
-        <v>6.011351697051036</v>
+        <v>16.00413469160948</v>
       </c>
       <c r="F6">
-        <v>43.14283575735905</v>
+        <v>10.92606386995223</v>
       </c>
       <c r="G6">
-        <v>2.188174274317531</v>
+        <v>15.89307632293354</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.769990645379383</v>
       </c>
       <c r="I6">
-        <v>32.28065992455299</v>
+        <v>4.346783001003839</v>
       </c>
       <c r="J6">
-        <v>6.375548343546325</v>
+        <v>6.952659170998282</v>
       </c>
       <c r="K6">
-        <v>18.58679206767038</v>
+        <v>11.51140264731105</v>
       </c>
       <c r="L6">
-        <v>5.739711115800443</v>
+        <v>10.54810775209437</v>
       </c>
       <c r="M6">
-        <v>14.83452300132103</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>84.65980754703281</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>10.69472963652108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.456223573298948</v>
+        <v>5.966822590967001</v>
       </c>
       <c r="D7">
-        <v>2.107685800187999</v>
+        <v>5.946108646472638</v>
       </c>
       <c r="E7">
-        <v>6.007827585753021</v>
+        <v>16.38726204938219</v>
       </c>
       <c r="F7">
-        <v>43.37158586448118</v>
+        <v>10.75806307478057</v>
       </c>
       <c r="G7">
-        <v>2.184727556160824</v>
+        <v>16.0804743112838</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.952461080600763</v>
       </c>
       <c r="I7">
-        <v>32.42269166608097</v>
+        <v>4.430163585714989</v>
       </c>
       <c r="J7">
-        <v>6.360239789262548</v>
+        <v>6.916464800670398</v>
       </c>
       <c r="K7">
-        <v>18.92497252713093</v>
+        <v>11.53516872241794</v>
       </c>
       <c r="L7">
-        <v>5.72750571470989</v>
+        <v>10.80316693014984</v>
       </c>
       <c r="M7">
-        <v>15.00652733690584</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>86.83886471346176</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>10.68511152991649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.54889966584274</v>
+        <v>6.468896658016209</v>
       </c>
       <c r="D8">
-        <v>2.021354085009587</v>
+        <v>6.12209364582407</v>
       </c>
       <c r="E8">
-        <v>5.996208260435484</v>
+        <v>17.99934900037696</v>
       </c>
       <c r="F8">
-        <v>44.45080716674926</v>
+        <v>10.17522729126259</v>
       </c>
       <c r="G8">
-        <v>2.169885052587185</v>
+        <v>17.07716158712522</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4.765447186903214</v>
       </c>
       <c r="I8">
-        <v>33.10251876634756</v>
+        <v>4.793651041538755</v>
       </c>
       <c r="J8">
-        <v>6.296186511405804</v>
+        <v>6.786816853816243</v>
       </c>
       <c r="K8">
-        <v>20.38066633237223</v>
+        <v>11.70769369184254</v>
       </c>
       <c r="L8">
-        <v>5.676068133777913</v>
+        <v>11.86982147272241</v>
       </c>
       <c r="M8">
-        <v>15.76561523935734</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>96.06370031188149</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>10.7263063943498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.727671315493747</v>
+        <v>7.424483371213622</v>
       </c>
       <c r="D9">
-        <v>1.850365303292653</v>
+        <v>6.903355373841825</v>
       </c>
       <c r="E9">
-        <v>5.988018636687095</v>
+        <v>20.90337387754223</v>
       </c>
       <c r="F9">
-        <v>46.8302943918541</v>
+        <v>9.822536935475455</v>
       </c>
       <c r="G9">
-        <v>2.141896491107393</v>
+        <v>19.58748687833512</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6.427940718642613</v>
       </c>
       <c r="I9">
-        <v>34.63844008112788</v>
+        <v>5.501243643604992</v>
       </c>
       <c r="J9">
-        <v>6.183217753980344</v>
+        <v>6.650592553897136</v>
       </c>
       <c r="K9">
-        <v>23.08924045871248</v>
+        <v>12.26689420411142</v>
       </c>
       <c r="L9">
-        <v>5.583654795311972</v>
+        <v>13.77319907673528</v>
       </c>
       <c r="M9">
-        <v>17.244592920889</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>113.0090183880124</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11.12845721579123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.856304502411908</v>
+        <v>8.090537550550607</v>
       </c>
       <c r="D10">
-        <v>1.722009032034908</v>
+        <v>7.717969411638934</v>
       </c>
       <c r="E10">
-        <v>5.991389469239174</v>
+        <v>23.17790346661621</v>
       </c>
       <c r="F10">
-        <v>48.75147664785997</v>
+        <v>10.36947456359214</v>
       </c>
       <c r="G10">
-        <v>2.121796641179962</v>
+        <v>21.76467906363354</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.739641538803895</v>
       </c>
       <c r="I10">
-        <v>35.90230918060085</v>
+        <v>6.031210172759438</v>
       </c>
       <c r="J10">
-        <v>6.108009039617356</v>
+        <v>6.592531658515533</v>
       </c>
       <c r="K10">
-        <v>24.9838073249361</v>
+        <v>12.71371862727499</v>
       </c>
       <c r="L10">
-        <v>5.52065395640679</v>
+        <v>15.22992921946952</v>
       </c>
       <c r="M10">
-        <v>18.31926131962017</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>125.114241764002</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11.5446258253138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.914111080086429</v>
+        <v>8.495343279356165</v>
       </c>
       <c r="D11">
-        <v>1.662609354224063</v>
+        <v>8.963154907306661</v>
       </c>
       <c r="E11">
-        <v>5.995084099341208</v>
+        <v>26.38894270774053</v>
       </c>
       <c r="F11">
-        <v>49.66632130542078</v>
+        <v>9.735090566263395</v>
       </c>
       <c r="G11">
-        <v>2.112697418053542</v>
+        <v>21.23125987554939</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.568711677411224</v>
       </c>
       <c r="I11">
-        <v>36.50958613955335</v>
+        <v>6.279007140346912</v>
       </c>
       <c r="J11">
-        <v>6.075513668958638</v>
+        <v>6.198266261889539</v>
       </c>
       <c r="K11">
-        <v>25.83066352003544</v>
+        <v>12.19232510412643</v>
       </c>
       <c r="L11">
-        <v>5.492992734178212</v>
+        <v>17.11344486183526</v>
       </c>
       <c r="M11">
-        <v>18.80493171803484</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>130.6569945159969</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.12498056531411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.935893434586111</v>
+        <v>8.75016476299691</v>
       </c>
       <c r="D12">
-        <v>1.639933885557376</v>
+        <v>9.865530307347967</v>
       </c>
       <c r="E12">
-        <v>5.996805495342145</v>
+        <v>28.67084153633246</v>
       </c>
       <c r="F12">
-        <v>50.01896123231001</v>
+        <v>9.030632199106769</v>
       </c>
       <c r="G12">
-        <v>2.109252790584494</v>
+        <v>20.38560657949522</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9.300391002532509</v>
       </c>
       <c r="I12">
-        <v>36.74447460811216</v>
+        <v>6.381242122609136</v>
       </c>
       <c r="J12">
-        <v>6.063458707098923</v>
+        <v>5.872152856500901</v>
       </c>
       <c r="K12">
-        <v>26.18933490872876</v>
+        <v>11.67869700071999</v>
       </c>
       <c r="L12">
-        <v>5.482655883015699</v>
+        <v>18.42965689884727</v>
       </c>
       <c r="M12">
-        <v>18.98837510052185</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>132.7857933854941</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10.74414885780167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.931207055618292</v>
+        <v>8.862943452262405</v>
       </c>
       <c r="D13">
-        <v>1.644826162375833</v>
+        <v>10.5782900897795</v>
       </c>
       <c r="E13">
-        <v>5.996420228067861</v>
+        <v>30.44042446045588</v>
       </c>
       <c r="F13">
-        <v>49.94273185044321</v>
+        <v>8.034667845690285</v>
       </c>
       <c r="G13">
-        <v>2.109994698319371</v>
+        <v>19.06279711519796</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9.949161651978573</v>
       </c>
       <c r="I13">
-        <v>36.69366322123943</v>
+        <v>6.370639754633651</v>
       </c>
       <c r="J13">
-        <v>6.066043763665774</v>
+        <v>5.557339862137054</v>
       </c>
       <c r="K13">
-        <v>26.11231321511273</v>
+        <v>11.06587466838983</v>
       </c>
       <c r="L13">
-        <v>5.484876074677642</v>
+        <v>19.42741328983104</v>
       </c>
       <c r="M13">
-        <v>18.94888790571087</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>132.3361804753718</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.10223765582562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.915905305570794</v>
+        <v>8.871616527301713</v>
       </c>
       <c r="D14">
-        <v>1.6607476982565</v>
+        <v>11.00442678144981</v>
       </c>
       <c r="E14">
-        <v>5.995219188846241</v>
+        <v>31.4793311625826</v>
       </c>
       <c r="F14">
-        <v>49.69520666352939</v>
+        <v>7.178204752756017</v>
       </c>
       <c r="G14">
-        <v>2.112414038406897</v>
+        <v>17.87589038248467</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.39756368710382</v>
       </c>
       <c r="I14">
-        <v>36.52881009488605</v>
+        <v>6.312244281106116</v>
       </c>
       <c r="J14">
-        <v>6.074516861051676</v>
+        <v>5.341184733844983</v>
       </c>
       <c r="K14">
-        <v>25.86027324877874</v>
+        <v>10.57791611501781</v>
       </c>
       <c r="L14">
-        <v>5.492139587090147</v>
+        <v>20.00066555014269</v>
       </c>
       <c r="M14">
-        <v>18.82003304167898</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>130.8529538557177</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>9.513411964946288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.906518407788805</v>
+        <v>8.831086478937401</v>
       </c>
       <c r="D15">
-        <v>1.670475251997941</v>
+        <v>11.06713863617584</v>
       </c>
       <c r="E15">
-        <v>5.994525859040883</v>
+        <v>31.6242820068144</v>
       </c>
       <c r="F15">
-        <v>49.54440970309475</v>
+        <v>6.862554305729369</v>
       </c>
       <c r="G15">
-        <v>2.113895921056803</v>
+        <v>17.4531162399251</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.45918773046962</v>
       </c>
       <c r="I15">
-        <v>36.42848322637001</v>
+        <v>6.273133467866199</v>
       </c>
       <c r="J15">
-        <v>6.0797395908149</v>
+        <v>5.291045056756539</v>
       </c>
       <c r="K15">
-        <v>25.71475914743273</v>
+        <v>10.42819576274144</v>
       </c>
       <c r="L15">
-        <v>5.49660647202844</v>
+        <v>20.0730413590211</v>
       </c>
       <c r="M15">
-        <v>18.74104495342088</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>129.9433845521824</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>9.297625346963263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.852511853169563</v>
+        <v>8.509354095031716</v>
       </c>
       <c r="D16">
-        <v>1.725867518421794</v>
+        <v>10.64516768119184</v>
       </c>
       <c r="E16">
-        <v>5.991192461719822</v>
+        <v>30.48192236453609</v>
       </c>
       <c r="F16">
-        <v>48.69253878821718</v>
+        <v>5.876894876449803</v>
       </c>
       <c r="G16">
-        <v>2.122391749126283</v>
+        <v>16.40616171966934</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.827271573056819</v>
       </c>
       <c r="I16">
-        <v>35.86329552011302</v>
+        <v>6.03615267460275</v>
       </c>
       <c r="J16">
-        <v>6.110167518735095</v>
+        <v>5.361936883129618</v>
       </c>
       <c r="K16">
-        <v>24.92842551132168</v>
+        <v>10.27835508848396</v>
       </c>
       <c r="L16">
-        <v>5.522481295476291</v>
+        <v>19.35822277635007</v>
       </c>
       <c r="M16">
-        <v>18.28745556665874</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>124.7519673280968</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>8.710862346440155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.819193594567061</v>
+        <v>8.254318127307902</v>
       </c>
       <c r="D17">
-        <v>1.759564723916084</v>
+        <v>10.07447895316826</v>
       </c>
       <c r="E17">
-        <v>5.989708868103064</v>
+        <v>29.00187523120761</v>
       </c>
       <c r="F17">
-        <v>48.1806301247076</v>
+        <v>5.706996195045977</v>
       </c>
       <c r="G17">
-        <v>2.127611437902248</v>
+        <v>16.32205777345402</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.053711147484387</v>
       </c>
       <c r="I17">
-        <v>35.52503673777638</v>
+        <v>5.888041602824654</v>
       </c>
       <c r="J17">
-        <v>6.129276112771415</v>
+        <v>5.53454598765175</v>
       </c>
       <c r="K17">
-        <v>24.44076050798556</v>
+        <v>10.4408644918597</v>
       </c>
       <c r="L17">
-        <v>5.538606452826802</v>
+        <v>18.47509115051066</v>
       </c>
       <c r="M17">
-        <v>18.00835499544682</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>121.5860037746866</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8.876976482036323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.799963158658427</v>
+        <v>8.056434962501452</v>
       </c>
       <c r="D18">
-        <v>1.778853783027684</v>
+        <v>9.317553384488887</v>
       </c>
       <c r="E18">
-        <v>5.989058204731688</v>
+        <v>27.07633241986156</v>
       </c>
       <c r="F18">
-        <v>47.8900194909192</v>
+        <v>6.333035476795431</v>
       </c>
       <c r="G18">
-        <v>2.130618190767103</v>
+        <v>17.08680057098441</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.148704992635791</v>
       </c>
       <c r="I18">
-        <v>35.33350422907568</v>
+        <v>5.798915795136571</v>
       </c>
       <c r="J18">
-        <v>6.140428283400087</v>
+        <v>5.807784218811542</v>
       </c>
       <c r="K18">
-        <v>24.1583100538039</v>
+        <v>10.89419789566588</v>
       </c>
       <c r="L18">
-        <v>5.547975541851087</v>
+        <v>17.35519495319691</v>
       </c>
       <c r="M18">
-        <v>17.84752066761786</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>119.7674135881246</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>9.432525465044836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.793440854123405</v>
+        <v>7.870666154581989</v>
       </c>
       <c r="D19">
-        <v>1.785369895788419</v>
+        <v>8.473570270282101</v>
       </c>
       <c r="E19">
-        <v>5.988872378294929</v>
+        <v>24.97394975728567</v>
       </c>
       <c r="F19">
-        <v>47.7922718177543</v>
+        <v>7.62594734740958</v>
       </c>
       <c r="G19">
-        <v>2.131637154014054</v>
+        <v>18.36786318468299</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.416522486883942</v>
       </c>
       <c r="I19">
-        <v>35.26916642657969</v>
+        <v>5.766109524712278</v>
       </c>
       <c r="J19">
-        <v>6.144231848903012</v>
+        <v>6.121395425797371</v>
       </c>
       <c r="K19">
-        <v>24.06233960756072</v>
+        <v>11.47737997960918</v>
       </c>
       <c r="L19">
-        <v>5.55116411872609</v>
+        <v>16.15806908243992</v>
       </c>
       <c r="M19">
-        <v>17.79301375871875</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>119.1543998045205</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10.15024423413234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.822747332666256</v>
+        <v>7.831016515106021</v>
       </c>
       <c r="D20">
-        <v>1.755987451279071</v>
+        <v>7.492233224373384</v>
       </c>
       <c r="E20">
-        <v>5.989845745270336</v>
+        <v>22.59269220502477</v>
       </c>
       <c r="F20">
-        <v>48.23472555976102</v>
+        <v>9.870636658072772</v>
       </c>
       <c r="G20">
-        <v>2.127055361051568</v>
+        <v>21.01293242447416</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.3806289645409</v>
       </c>
       <c r="I20">
-        <v>35.5607300237123</v>
+        <v>5.888691158801073</v>
       </c>
       <c r="J20">
-        <v>6.127225242695415</v>
+        <v>6.571611436851678</v>
       </c>
       <c r="K20">
-        <v>24.49287564053403</v>
+        <v>12.48935093161725</v>
       </c>
       <c r="L20">
-        <v>5.536880179353654</v>
+        <v>14.86167379789574</v>
       </c>
       <c r="M20">
-        <v>18.03809727759281</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>121.931084116217</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.34604007782045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.920402750623407</v>
+        <v>8.335804610564693</v>
       </c>
       <c r="D21">
-        <v>1.656076404000964</v>
+        <v>7.974837643320162</v>
       </c>
       <c r="E21">
-        <v>5.995563116697754</v>
+        <v>23.92897461623853</v>
       </c>
       <c r="F21">
-        <v>49.76773937270652</v>
+        <v>11.46014112498543</v>
       </c>
       <c r="G21">
-        <v>2.111703436965245</v>
+        <v>23.1673393205111</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.461330346381128</v>
       </c>
       <c r="I21">
-        <v>36.57709534804507</v>
+        <v>6.307375033067052</v>
       </c>
       <c r="J21">
-        <v>6.072021282521059</v>
+        <v>6.63790041331449</v>
       </c>
       <c r="K21">
-        <v>25.93444104694017</v>
+        <v>13.03736663309438</v>
       </c>
       <c r="L21">
-        <v>5.490002424362409</v>
+        <v>15.74343429282742</v>
       </c>
       <c r="M21">
-        <v>18.85789346449952</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>131.2874203920004</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.08067996086959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.983598439372958</v>
+        <v>8.708818338922296</v>
       </c>
       <c r="D22">
-        <v>1.589698855028446</v>
+        <v>8.365297988110672</v>
       </c>
       <c r="E22">
-        <v>6.001184873307833</v>
+        <v>24.94693080875135</v>
       </c>
       <c r="F22">
-        <v>50.80604265700416</v>
+        <v>12.57778700393043</v>
       </c>
       <c r="G22">
-        <v>2.101673190443917</v>
+        <v>24.61581349329856</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>9.218072587982002</v>
       </c>
       <c r="I22">
-        <v>37.27022309385566</v>
+        <v>6.592524207723526</v>
       </c>
       <c r="J22">
-        <v>6.037403548243462</v>
+        <v>6.699184166696245</v>
       </c>
       <c r="K22">
-        <v>26.9691262091361</v>
+        <v>13.42998262265557</v>
       </c>
       <c r="L22">
-        <v>5.460165532818078</v>
+        <v>16.39550201484977</v>
       </c>
       <c r="M22">
-        <v>19.39096454315362</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>137.5568843572476</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.86551137763859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.949928002117452</v>
+        <v>8.539778283174874</v>
       </c>
       <c r="D23">
-        <v>1.625237320585199</v>
+        <v>8.160273901582181</v>
       </c>
       <c r="E23">
-        <v>5.998007761929188</v>
+        <v>24.40396120961551</v>
       </c>
       <c r="F23">
-        <v>50.2484239973681</v>
+        <v>11.99212268842025</v>
       </c>
       <c r="G23">
-        <v>2.107028184234435</v>
+        <v>23.87962634795838</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.808931524791138</v>
       </c>
       <c r="I23">
-        <v>36.89754240984031</v>
+        <v>6.439493792103129</v>
       </c>
       <c r="J23">
-        <v>6.055744665373679</v>
+        <v>6.673741876424452</v>
       </c>
       <c r="K23">
-        <v>26.41953593839832</v>
+        <v>13.25020183263869</v>
       </c>
       <c r="L23">
-        <v>5.476018841270539</v>
+        <v>16.04571654678227</v>
       </c>
       <c r="M23">
-        <v>19.10669578033921</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>134.1894097370985</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.46533082343231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.821140921800334</v>
+        <v>7.859914418141792</v>
       </c>
       <c r="D24">
-        <v>1.757604994848854</v>
+        <v>7.410962350059871</v>
       </c>
       <c r="E24">
-        <v>5.989783233915693</v>
+        <v>22.36842522054694</v>
       </c>
       <c r="F24">
-        <v>48.21025753622256</v>
+        <v>10.05428501113382</v>
       </c>
       <c r="G24">
-        <v>2.127306744675149</v>
+        <v>21.21007366009886</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.372521693230191</v>
       </c>
       <c r="I24">
-        <v>35.54458396138303</v>
+        <v>5.882867630621277</v>
       </c>
       <c r="J24">
-        <v>6.128151923050506</v>
+        <v>6.620522267612112</v>
       </c>
       <c r="K24">
-        <v>24.46932088920229</v>
+        <v>12.60043702215459</v>
       </c>
       <c r="L24">
-        <v>5.537660320298276</v>
+        <v>14.73052990291448</v>
       </c>
       <c r="M24">
-        <v>18.02465196084792</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>121.7821307478298</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11.45493599331229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.679731312646675</v>
+        <v>7.119423898013065</v>
       </c>
       <c r="D25">
-        <v>1.89697025958188</v>
+        <v>6.63190009605714</v>
       </c>
       <c r="E25">
-        <v>5.988623733129705</v>
+        <v>20.13740049449229</v>
       </c>
       <c r="F25">
-        <v>46.15718549052905</v>
+        <v>9.766848017752199</v>
       </c>
       <c r="G25">
-        <v>2.149369556689642</v>
+        <v>18.76916907912454</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5.964530901987319</v>
       </c>
       <c r="I25">
-        <v>34.20004857295702</v>
+        <v>5.308005409957113</v>
       </c>
       <c r="J25">
-        <v>6.21241850468722</v>
+        <v>6.658846683347101</v>
       </c>
       <c r="K25">
-        <v>22.37303711326952</v>
+        <v>12.04050355093728</v>
       </c>
       <c r="L25">
-        <v>5.607775389755407</v>
+        <v>13.27729648597641</v>
       </c>
       <c r="M25">
-        <v>16.84625984487577</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>108.5162541330363</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>10.94523383285295</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.645075064253605</v>
+        <v>6.089883106701353</v>
       </c>
       <c r="D2">
-        <v>6.181724227875258</v>
+        <v>5.968111214157769</v>
       </c>
       <c r="E2">
-        <v>18.42116090842494</v>
+        <v>18.37919648941077</v>
       </c>
       <c r="F2">
-        <v>10.09124769920391</v>
+        <v>9.782078173595762</v>
       </c>
       <c r="G2">
-        <v>17.44792672540476</v>
+        <v>15.89668534852727</v>
       </c>
       <c r="H2">
-        <v>4.989856865785049</v>
+        <v>4.864545725719075</v>
       </c>
       <c r="I2">
-        <v>4.89273326231958</v>
+        <v>4.668376490249988</v>
       </c>
       <c r="J2">
-        <v>6.769309616073231</v>
+        <v>7.524572688168568</v>
       </c>
       <c r="K2">
-        <v>11.80755165546388</v>
+        <v>11.32549497799306</v>
       </c>
       <c r="L2">
-        <v>12.14409595919627</v>
+        <v>11.32219146256264</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.072562872734546</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>12.18700626556741</v>
       </c>
       <c r="O2">
-        <v>98.47611829869282</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>10.78485045498547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>98.4345655193265</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>10.47716807703209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.255361727965409</v>
+        <v>5.741492206318972</v>
       </c>
       <c r="D3">
-        <v>6.036998250803439</v>
+        <v>5.847146560917659</v>
       </c>
       <c r="E3">
-        <v>17.18808022869231</v>
+        <v>17.14434758764455</v>
       </c>
       <c r="F3">
-        <v>10.47177054683344</v>
+        <v>10.28105092184072</v>
       </c>
       <c r="G3">
-        <v>16.60080394743267</v>
+        <v>15.15413734901883</v>
       </c>
       <c r="H3">
-        <v>4.346165020989321</v>
+        <v>4.242117933207644</v>
       </c>
       <c r="I3">
-        <v>4.608510824296351</v>
+        <v>4.42503974313464</v>
       </c>
       <c r="J3">
-        <v>6.858259158668623</v>
+        <v>7.599997826042175</v>
       </c>
       <c r="K3">
-        <v>11.64651119168944</v>
+        <v>11.27359662348402</v>
       </c>
       <c r="L3">
-        <v>11.33027311435496</v>
+        <v>11.44813784487605</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.658804337131516</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>11.36637726545229</v>
       </c>
       <c r="O3">
-        <v>91.3857965982979</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.71707982688146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>91.35755920209778</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>10.49813143237919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.004196971159351</v>
+        <v>5.520470154018968</v>
       </c>
       <c r="D4">
-        <v>5.953291854309456</v>
+        <v>5.780761971814727</v>
       </c>
       <c r="E4">
-        <v>16.39497642921822</v>
+        <v>16.35144025588401</v>
       </c>
       <c r="F4">
-        <v>10.77748850510671</v>
+        <v>10.6455917054238</v>
       </c>
       <c r="G4">
-        <v>16.13579795354249</v>
+        <v>14.75953255291926</v>
       </c>
       <c r="H4">
-        <v>3.955517056195031</v>
+        <v>3.864350536393492</v>
       </c>
       <c r="I4">
-        <v>4.432043473259326</v>
+        <v>4.273929441405134</v>
       </c>
       <c r="J4">
-        <v>6.923954949844403</v>
+        <v>7.651409704656717</v>
       </c>
       <c r="K4">
-        <v>11.56613282293488</v>
+        <v>11.25485941198005</v>
       </c>
       <c r="L4">
-        <v>10.80511374589568</v>
+        <v>11.52663449240091</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.446865497465779</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>10.83701556697098</v>
       </c>
       <c r="O4">
-        <v>86.86435516947817</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10.70635587450585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>86.84295213621556</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>10.53625375538391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.887788939595618</v>
+        <v>5.419130922861023</v>
       </c>
       <c r="D5">
-        <v>5.918330377916686</v>
+        <v>5.753514206326427</v>
       </c>
       <c r="E5">
-        <v>16.06134354561507</v>
+        <v>16.01822132169168</v>
       </c>
       <c r="F5">
-        <v>10.91071126333976</v>
+        <v>10.80031378971505</v>
       </c>
       <c r="G5">
-        <v>15.94366507016622</v>
+        <v>14.59764260174164</v>
       </c>
       <c r="H5">
-        <v>3.796678518228323</v>
+        <v>3.710765392759797</v>
       </c>
       <c r="I5">
-        <v>4.359181325962719</v>
+        <v>4.211725580203471</v>
       </c>
       <c r="J5">
-        <v>6.950891801326565</v>
+        <v>7.671459579088912</v>
       </c>
       <c r="K5">
-        <v>11.52853313288966</v>
+        <v>11.24180895112574</v>
       </c>
       <c r="L5">
-        <v>10.58473744751306</v>
+        <v>11.55253663407434</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5.364944931798533</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>10.61490545925066</v>
       </c>
       <c r="O5">
-        <v>84.9762374635031</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10.70266039939461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>84.95735448995457</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>10.55154512356255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.85489983449634</v>
+        <v>5.39090452561971</v>
       </c>
       <c r="D6">
-        <v>5.910117032203843</v>
+        <v>5.746685946823042</v>
       </c>
       <c r="E6">
-        <v>16.00413469160948</v>
+        <v>15.96113467166969</v>
       </c>
       <c r="F6">
-        <v>10.92606386995223</v>
+        <v>10.81972803331763</v>
       </c>
       <c r="G6">
-        <v>15.89307632293354</v>
+        <v>14.55238245706945</v>
       </c>
       <c r="H6">
-        <v>3.769990645379383</v>
+        <v>3.684978741287522</v>
       </c>
       <c r="I6">
-        <v>4.346783001003839</v>
+        <v>4.201424574311612</v>
       </c>
       <c r="J6">
-        <v>6.952659170998282</v>
+        <v>7.672319007849084</v>
       </c>
       <c r="K6">
-        <v>11.51140264731105</v>
+        <v>11.22956772867514</v>
       </c>
       <c r="L6">
-        <v>10.54810775209437</v>
+        <v>11.54910583096765</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5.343553114866075</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>10.57797395826721</v>
       </c>
       <c r="O6">
-        <v>84.65980754703281</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10.69472963652108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>84.6413352955252</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>10.54720482847457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.966822590967001</v>
+        <v>5.492283663807108</v>
       </c>
       <c r="D7">
-        <v>5.946108646472638</v>
+        <v>5.769916581812923</v>
       </c>
       <c r="E7">
-        <v>16.38726204938219</v>
+        <v>16.3419169190529</v>
       </c>
       <c r="F7">
-        <v>10.75806307478057</v>
+        <v>10.61672875145413</v>
       </c>
       <c r="G7">
-        <v>16.0804743112838</v>
+        <v>14.80916187521193</v>
       </c>
       <c r="H7">
-        <v>3.952461080600763</v>
+        <v>3.860929486579057</v>
       </c>
       <c r="I7">
-        <v>4.430163585714989</v>
+        <v>4.272436940100125</v>
       </c>
       <c r="J7">
-        <v>6.916464800670398</v>
+        <v>7.605312644948409</v>
       </c>
       <c r="K7">
-        <v>11.53516872241794</v>
+        <v>11.21719856708047</v>
       </c>
       <c r="L7">
-        <v>10.80316693014984</v>
+        <v>11.49921703342391</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.41385912220318</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>10.83559461318114</v>
       </c>
       <c r="O7">
-        <v>86.83886471346176</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10.68511152991649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>86.81739699318268</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>10.50482054453285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.468896658016209</v>
+        <v>5.944581075614241</v>
       </c>
       <c r="D8">
-        <v>6.12209364582407</v>
+        <v>5.903624497561981</v>
       </c>
       <c r="E8">
-        <v>17.99934900037696</v>
+        <v>17.9509414415263</v>
       </c>
       <c r="F8">
-        <v>10.17522729126259</v>
+        <v>9.871042497455603</v>
       </c>
       <c r="G8">
-        <v>17.07716158712522</v>
+        <v>15.89238544142296</v>
       </c>
       <c r="H8">
-        <v>4.765447186903214</v>
+        <v>4.646024833372701</v>
       </c>
       <c r="I8">
-        <v>4.793651041538755</v>
+        <v>4.582578071203476</v>
       </c>
       <c r="J8">
-        <v>6.786816853816243</v>
+        <v>7.408127633066733</v>
       </c>
       <c r="K8">
-        <v>11.70769369184254</v>
+        <v>11.23628461100119</v>
       </c>
       <c r="L8">
-        <v>11.86982147272241</v>
+        <v>11.31781836865831</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.860881393273073</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>11.91212647776492</v>
       </c>
       <c r="O8">
-        <v>96.06370031188149</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10.7263063943498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>96.02660404951664</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>10.41239715384657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.424483371213622</v>
+        <v>6.822680092083977</v>
       </c>
       <c r="D9">
-        <v>6.903355373841825</v>
+        <v>6.751763846263151</v>
       </c>
       <c r="E9">
-        <v>20.90337387754223</v>
+        <v>20.86707400277735</v>
       </c>
       <c r="F9">
-        <v>9.822536935475455</v>
+        <v>9.113414940842354</v>
       </c>
       <c r="G9">
-        <v>19.58748687833512</v>
+        <v>18.31929964341172</v>
       </c>
       <c r="H9">
-        <v>6.427940718642613</v>
+        <v>6.252646678069709</v>
       </c>
       <c r="I9">
-        <v>5.501243643604992</v>
+        <v>5.18695767175068</v>
       </c>
       <c r="J9">
-        <v>6.650592553897136</v>
+        <v>7.217911871358003</v>
       </c>
       <c r="K9">
-        <v>12.26689420411142</v>
+        <v>11.47987054343164</v>
       </c>
       <c r="L9">
-        <v>13.77319907673528</v>
+        <v>11.03271422056391</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.610594361140974</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>13.83281819899755</v>
       </c>
       <c r="O9">
-        <v>113.0090183880124</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11.12845721579123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>112.9265193970235</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>10.54650609778334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.090537550550607</v>
+        <v>7.486727660511957</v>
       </c>
       <c r="D10">
-        <v>7.717969411638934</v>
+        <v>7.562620699064874</v>
       </c>
       <c r="E10">
-        <v>23.17790346661621</v>
+        <v>23.15085801690187</v>
       </c>
       <c r="F10">
-        <v>10.36947456359214</v>
+        <v>8.952488118529269</v>
       </c>
       <c r="G10">
-        <v>21.76467906363354</v>
+        <v>20.93151441255051</v>
       </c>
       <c r="H10">
-        <v>7.739641538803895</v>
+        <v>7.516314976658347</v>
       </c>
       <c r="I10">
-        <v>6.031210172759438</v>
+        <v>5.636725522965279</v>
       </c>
       <c r="J10">
-        <v>6.592531658515533</v>
+        <v>6.835742936497133</v>
       </c>
       <c r="K10">
-        <v>12.71371862727499</v>
+        <v>11.62320328104476</v>
       </c>
       <c r="L10">
-        <v>15.22992921946952</v>
+        <v>10.74870520185886</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.021138845755226</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>15.30396975559791</v>
       </c>
       <c r="O10">
-        <v>125.114241764002</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11.5446258253138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>124.9776362470734</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>10.6748447714325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.495343279356165</v>
+        <v>7.971300407834094</v>
       </c>
       <c r="D11">
-        <v>8.963154907306661</v>
+        <v>8.781026294067111</v>
       </c>
       <c r="E11">
-        <v>26.38894270774053</v>
+        <v>26.3463174220606</v>
       </c>
       <c r="F11">
-        <v>9.735090566263395</v>
+        <v>8.1052773966342</v>
       </c>
       <c r="G11">
-        <v>21.23125987554939</v>
+        <v>21.49702782785555</v>
       </c>
       <c r="H11">
-        <v>8.568711677411224</v>
+        <v>8.326391421012078</v>
       </c>
       <c r="I11">
-        <v>6.279007140346912</v>
+        <v>5.844743609237323</v>
       </c>
       <c r="J11">
-        <v>6.198266261889539</v>
+        <v>5.992172979047474</v>
       </c>
       <c r="K11">
-        <v>12.19232510412643</v>
+        <v>10.96669854074937</v>
       </c>
       <c r="L11">
-        <v>17.11344486183526</v>
+        <v>10.16911484713062</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.184430887151951</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>17.18884618134945</v>
       </c>
       <c r="O11">
-        <v>130.6569945159969</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.12498056531411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>130.4851331871161</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>9.849244555289221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.75016476299691</v>
+        <v>8.278422421921803</v>
       </c>
       <c r="D12">
-        <v>9.865530307347967</v>
+        <v>9.670773930455399</v>
       </c>
       <c r="E12">
-        <v>28.67084153633246</v>
+        <v>28.6168754986541</v>
       </c>
       <c r="F12">
-        <v>9.030632199106769</v>
+        <v>7.366753517154202</v>
       </c>
       <c r="G12">
-        <v>20.38560657949522</v>
+        <v>21.20911508649734</v>
       </c>
       <c r="H12">
-        <v>9.300391002532509</v>
+        <v>9.060897488582199</v>
       </c>
       <c r="I12">
-        <v>6.381242122609136</v>
+        <v>5.930104491858011</v>
       </c>
       <c r="J12">
-        <v>5.872152856500901</v>
+        <v>5.538025295549824</v>
       </c>
       <c r="K12">
-        <v>11.67869700071999</v>
+        <v>10.43521317910066</v>
       </c>
       <c r="L12">
-        <v>18.42965689884727</v>
+        <v>9.784569019177702</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.098589225531736</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>18.50159012430841</v>
       </c>
       <c r="O12">
-        <v>132.7857933854941</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10.74414885780167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>132.5980408418853</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>9.229178173242303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.862943452262405</v>
+        <v>8.429165313180945</v>
       </c>
       <c r="D13">
-        <v>10.5782900897795</v>
+        <v>10.38911709540091</v>
       </c>
       <c r="E13">
-        <v>30.44042446045588</v>
+        <v>30.38182232602417</v>
       </c>
       <c r="F13">
-        <v>8.034667845690285</v>
+        <v>6.481066037084453</v>
       </c>
       <c r="G13">
-        <v>19.06279711519796</v>
+        <v>19.90781165404505</v>
       </c>
       <c r="H13">
-        <v>9.949161651978573</v>
+        <v>9.728616028243332</v>
       </c>
       <c r="I13">
-        <v>6.370639754633651</v>
+        <v>5.922346804395221</v>
       </c>
       <c r="J13">
-        <v>5.557339862137054</v>
+        <v>5.394209521915958</v>
       </c>
       <c r="K13">
-        <v>11.06587466838983</v>
+        <v>9.93110644840494</v>
       </c>
       <c r="L13">
-        <v>19.42741328983104</v>
+        <v>9.506360851361723</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.774032812253822</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>19.49139511968183</v>
       </c>
       <c r="O13">
-        <v>132.3361804753718</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.10223765582562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>132.1518942091238</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>8.647167978644605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.871616527301713</v>
+        <v>8.461084764399097</v>
       </c>
       <c r="D14">
-        <v>11.00442678144981</v>
+        <v>10.82857008479766</v>
       </c>
       <c r="E14">
-        <v>31.4793311625826</v>
+        <v>31.42134275821994</v>
       </c>
       <c r="F14">
-        <v>7.178204752756017</v>
+        <v>5.760378651081344</v>
       </c>
       <c r="G14">
-        <v>17.87589038248467</v>
+        <v>18.51036657372063</v>
       </c>
       <c r="H14">
-        <v>10.39756368710382</v>
+        <v>10.196571506702</v>
       </c>
       <c r="I14">
-        <v>6.312244281106116</v>
+        <v>5.875047169228828</v>
       </c>
       <c r="J14">
-        <v>5.341184733844983</v>
+        <v>5.41448670883525</v>
       </c>
       <c r="K14">
-        <v>10.57791611501781</v>
+        <v>9.579023027072004</v>
       </c>
       <c r="L14">
-        <v>20.00066555014269</v>
+        <v>9.352181809272592</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.426318666376767</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>20.05728449324675</v>
       </c>
       <c r="O14">
-        <v>130.8529538557177</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9.513411964946288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>130.679668526729</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>8.154055387061597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.831086478937401</v>
+        <v>8.425498502703945</v>
       </c>
       <c r="D15">
-        <v>11.06713863617584</v>
+        <v>10.89837821102859</v>
       </c>
       <c r="E15">
-        <v>31.6242820068144</v>
+        <v>31.56798531900029</v>
       </c>
       <c r="F15">
-        <v>6.862554305729369</v>
+        <v>5.4971785729104</v>
       </c>
       <c r="G15">
-        <v>17.4531162399251</v>
+        <v>17.93900468553256</v>
       </c>
       <c r="H15">
-        <v>10.45918773046962</v>
+        <v>10.26555428320116</v>
       </c>
       <c r="I15">
-        <v>6.273133467866199</v>
+        <v>5.843250354006396</v>
       </c>
       <c r="J15">
-        <v>5.291045056756539</v>
+        <v>5.471282712732818</v>
       </c>
       <c r="K15">
-        <v>10.42819576274144</v>
+        <v>9.489051222856428</v>
       </c>
       <c r="L15">
-        <v>20.0730413590211</v>
+        <v>9.32955388872498</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.277347650883188</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>20.12705072700283</v>
       </c>
       <c r="O15">
-        <v>129.9433845521824</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9.297625346963263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>129.7766236037191</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>7.985741301841746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.509354095031716</v>
+        <v>8.078844126169804</v>
       </c>
       <c r="D16">
-        <v>10.64516768119184</v>
+        <v>10.5061821993407</v>
       </c>
       <c r="E16">
-        <v>30.48192236453609</v>
+        <v>30.43699867237635</v>
       </c>
       <c r="F16">
-        <v>5.876894876449803</v>
+        <v>4.667196502189943</v>
       </c>
       <c r="G16">
-        <v>16.40616171966934</v>
+        <v>16.05137130304033</v>
       </c>
       <c r="H16">
-        <v>9.827271573056819</v>
+        <v>9.656866255985467</v>
       </c>
       <c r="I16">
-        <v>6.03615267460275</v>
+        <v>5.646479176764398</v>
       </c>
       <c r="J16">
-        <v>5.361936883129618</v>
+        <v>5.956185795422493</v>
       </c>
       <c r="K16">
-        <v>10.27835508848396</v>
+        <v>9.556224203367018</v>
       </c>
       <c r="L16">
-        <v>19.35822277635007</v>
+        <v>9.524896455957283</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.726037829012698</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>19.40501762061736</v>
       </c>
       <c r="O16">
-        <v>124.7519673280968</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8.710862346440155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>124.6184852596942</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>8.044908631903649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.254318127307902</v>
+        <v>7.796313313011294</v>
       </c>
       <c r="D17">
-        <v>10.07447895316826</v>
+        <v>9.946018618430761</v>
       </c>
       <c r="E17">
-        <v>29.00187523120761</v>
+        <v>28.9625787117621</v>
       </c>
       <c r="F17">
-        <v>5.706996195045977</v>
+        <v>4.567667279505046</v>
       </c>
       <c r="G17">
-        <v>16.32205777345402</v>
+        <v>15.52886227583062</v>
       </c>
       <c r="H17">
-        <v>9.053711147484387</v>
+        <v>8.889738242992726</v>
       </c>
       <c r="I17">
-        <v>5.888041602824654</v>
+        <v>5.522292837948259</v>
       </c>
       <c r="J17">
-        <v>5.53454598765175</v>
+        <v>6.282451106525504</v>
       </c>
       <c r="K17">
-        <v>10.4408644918597</v>
+        <v>9.790831365791295</v>
       </c>
       <c r="L17">
-        <v>18.47509115051066</v>
+        <v>9.753127993733241</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.491251401621166</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>18.52056337078398</v>
       </c>
       <c r="O17">
-        <v>121.5860037746866</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8.876976482036323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>121.4696522112672</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>8.363919443515162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.056434962501452</v>
+        <v>7.555002834129139</v>
       </c>
       <c r="D18">
-        <v>9.317553384488887</v>
+        <v>9.189074531789428</v>
       </c>
       <c r="E18">
-        <v>27.07633241986156</v>
+        <v>27.0404815580849</v>
       </c>
       <c r="F18">
-        <v>6.333035476795431</v>
+        <v>5.535173091519679</v>
       </c>
       <c r="G18">
-        <v>17.08680057098441</v>
+        <v>16.0131392474489</v>
       </c>
       <c r="H18">
-        <v>8.148704992635791</v>
+        <v>7.978649855528457</v>
       </c>
       <c r="I18">
-        <v>5.798915795136571</v>
+        <v>5.445869177652563</v>
       </c>
       <c r="J18">
-        <v>5.807784218811542</v>
+        <v>6.579600932076965</v>
       </c>
       <c r="K18">
-        <v>10.89419789566588</v>
+        <v>10.2239283353356</v>
       </c>
       <c r="L18">
-        <v>17.35519495319691</v>
+        <v>10.06190247791915</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.541132019214647</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>17.40350246853585</v>
       </c>
       <c r="O18">
-        <v>119.7674135881246</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9.432525465044836</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>119.6598491120316</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>8.923401821520278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.870666154581989</v>
+        <v>7.328385427476134</v>
       </c>
       <c r="D19">
-        <v>8.473570270282101</v>
+        <v>8.340535716461815</v>
       </c>
       <c r="E19">
-        <v>24.97394975728567</v>
+        <v>24.94152084122154</v>
       </c>
       <c r="F19">
-        <v>7.62594734740958</v>
+        <v>6.91430598537149</v>
       </c>
       <c r="G19">
-        <v>18.36786318468299</v>
+        <v>17.10888245499112</v>
       </c>
       <c r="H19">
-        <v>7.416522486883942</v>
+        <v>7.232970979685146</v>
       </c>
       <c r="I19">
-        <v>5.766109524712278</v>
+        <v>5.417821512732271</v>
       </c>
       <c r="J19">
-        <v>6.121395425797371</v>
+        <v>6.849856915372382</v>
       </c>
       <c r="K19">
-        <v>11.47737997960918</v>
+        <v>10.73210625079528</v>
       </c>
       <c r="L19">
-        <v>16.15806908243992</v>
+        <v>10.38673053014604</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.788783076261259</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>16.21214344109528</v>
       </c>
       <c r="O19">
-        <v>119.1543998045205</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10.15024423413234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>119.0494577733643</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>9.59139256571207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.831016515106021</v>
+        <v>7.239380147208776</v>
       </c>
       <c r="D20">
-        <v>7.492233224373384</v>
+        <v>7.347806784812458</v>
       </c>
       <c r="E20">
-        <v>22.59269220502477</v>
+        <v>22.56729383684634</v>
       </c>
       <c r="F20">
-        <v>9.870636658072772</v>
+        <v>8.892344347588253</v>
       </c>
       <c r="G20">
-        <v>21.01293242447416</v>
+        <v>19.79386389708953</v>
       </c>
       <c r="H20">
-        <v>7.3806289645409</v>
+        <v>7.172294051637111</v>
       </c>
       <c r="I20">
-        <v>5.888691158801073</v>
+        <v>5.519974886041529</v>
       </c>
       <c r="J20">
-        <v>6.571611436851678</v>
+        <v>7.058418352931259</v>
       </c>
       <c r="K20">
-        <v>12.48935093161725</v>
+        <v>11.52160252339902</v>
       </c>
       <c r="L20">
-        <v>14.86167379789574</v>
+        <v>10.78749251132887</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.610163767812159</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>14.93021170835342</v>
       </c>
       <c r="O20">
-        <v>121.931084116217</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11.34604007782045</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>121.8119974540576</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>10.60122132485386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.335804610564693</v>
+        <v>7.783683276920383</v>
       </c>
       <c r="D21">
-        <v>7.974837643320162</v>
+        <v>7.782797613713567</v>
       </c>
       <c r="E21">
-        <v>23.92897461623853</v>
+        <v>23.89309822077534</v>
       </c>
       <c r="F21">
-        <v>11.46014112498543</v>
+        <v>9.679524771542948</v>
       </c>
       <c r="G21">
-        <v>23.1673393205111</v>
+        <v>23.6732563599536</v>
       </c>
       <c r="H21">
-        <v>8.461330346381128</v>
+        <v>8.20495656359118</v>
       </c>
       <c r="I21">
-        <v>6.307375033067052</v>
+        <v>5.86631298997078</v>
       </c>
       <c r="J21">
-        <v>6.63790041331449</v>
+        <v>6.090152421347604</v>
       </c>
       <c r="K21">
-        <v>13.03736663309438</v>
+        <v>11.62975823633304</v>
       </c>
       <c r="L21">
-        <v>15.74343429282742</v>
+        <v>10.55006126383319</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.651897762544458</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>15.83257149112861</v>
       </c>
       <c r="O21">
-        <v>131.2874203920004</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.08067996086959</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>131.1088765286383</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>10.71388649893525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.708818338922296</v>
+        <v>8.187189819228054</v>
       </c>
       <c r="D22">
-        <v>8.365297988110672</v>
+        <v>8.147568886143423</v>
       </c>
       <c r="E22">
-        <v>24.94693080875135</v>
+        <v>24.90613799161588</v>
       </c>
       <c r="F22">
-        <v>12.57778700393043</v>
+        <v>10.49198576668752</v>
       </c>
       <c r="G22">
-        <v>24.61581349329856</v>
+        <v>26.26182744830542</v>
       </c>
       <c r="H22">
-        <v>9.218072587982002</v>
+        <v>8.927134529276053</v>
       </c>
       <c r="I22">
-        <v>6.592524207723526</v>
+        <v>6.101264379935343</v>
       </c>
       <c r="J22">
-        <v>6.699184166696245</v>
+        <v>5.442765026940119</v>
       </c>
       <c r="K22">
-        <v>13.42998262265557</v>
+        <v>11.71707954435615</v>
       </c>
       <c r="L22">
-        <v>16.39550201484977</v>
+        <v>10.39072753673406</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.33527145986488</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>16.49757543452354</v>
       </c>
       <c r="O22">
-        <v>137.5568843572476</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.86551137763859</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>137.3254750345494</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>10.99840513672719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.539778283174874</v>
+        <v>7.987463894894002</v>
       </c>
       <c r="D23">
-        <v>8.160273901582181</v>
+        <v>7.962108325990244</v>
       </c>
       <c r="E23">
-        <v>24.40396120961551</v>
+        <v>24.36849444783708</v>
       </c>
       <c r="F23">
-        <v>11.99212268842025</v>
+        <v>10.09740314716415</v>
       </c>
       <c r="G23">
-        <v>23.87962634795838</v>
+        <v>24.72317395137352</v>
       </c>
       <c r="H23">
-        <v>8.808931524791138</v>
+        <v>8.537623148652148</v>
       </c>
       <c r="I23">
-        <v>6.439493792103129</v>
+        <v>5.975166518924755</v>
       </c>
       <c r="J23">
-        <v>6.673741876424452</v>
+        <v>5.88175014781031</v>
       </c>
       <c r="K23">
-        <v>13.25020183263869</v>
+        <v>11.72322913431743</v>
       </c>
       <c r="L23">
-        <v>16.04571654678227</v>
+        <v>10.50917756546065</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.00831584070442</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>16.13992940673969</v>
       </c>
       <c r="O23">
-        <v>134.1894097370985</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.46533082343231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>133.9885127088653</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>10.80698545592247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.859914418141792</v>
+        <v>7.251942896588472</v>
       </c>
       <c r="D24">
-        <v>7.410962350059871</v>
+        <v>7.266450386657278</v>
       </c>
       <c r="E24">
-        <v>22.36842522054694</v>
+        <v>22.34365721584812</v>
       </c>
       <c r="F24">
-        <v>10.05428501113382</v>
+        <v>9.080343748334094</v>
       </c>
       <c r="G24">
-        <v>21.21007366009886</v>
+        <v>19.95895629941549</v>
       </c>
       <c r="H24">
-        <v>7.372521693230191</v>
+        <v>7.164485219692049</v>
       </c>
       <c r="I24">
-        <v>5.882867630621277</v>
+        <v>5.513371855928378</v>
       </c>
       <c r="J24">
-        <v>6.620522267612112</v>
+        <v>7.106830015539622</v>
       </c>
       <c r="K24">
-        <v>12.60043702215459</v>
+        <v>11.62439499910492</v>
       </c>
       <c r="L24">
-        <v>14.73052990291448</v>
+        <v>10.85610008493395</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.667354557840476</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>14.79968519404497</v>
       </c>
       <c r="O24">
-        <v>121.7821307478298</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11.45493599331229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>121.6636094249481</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>10.70651062356049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.119423898013065</v>
+        <v>6.541882201194713</v>
       </c>
       <c r="D25">
-        <v>6.63190009605714</v>
+        <v>6.484111317365948</v>
       </c>
       <c r="E25">
-        <v>20.13740049449229</v>
+        <v>20.09869952073298</v>
       </c>
       <c r="F25">
-        <v>9.766848017752199</v>
+        <v>9.203670157415846</v>
       </c>
       <c r="G25">
-        <v>18.76916907912454</v>
+        <v>17.32348749250895</v>
       </c>
       <c r="H25">
-        <v>5.964530901987319</v>
+        <v>5.805715774810463</v>
       </c>
       <c r="I25">
-        <v>5.308005409957113</v>
+        <v>5.024001571266846</v>
       </c>
       <c r="J25">
-        <v>6.658846683347101</v>
+        <v>7.309142940106561</v>
       </c>
       <c r="K25">
-        <v>12.04050355093728</v>
+        <v>11.36171408267078</v>
       </c>
       <c r="L25">
-        <v>13.27729648597641</v>
+        <v>11.08457642320989</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.013982902548524</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>13.33144527533676</v>
       </c>
       <c r="O25">
-        <v>108.5162541330363</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10.94523383285295</v>
+        <v>108.4487862785173</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>10.46069166638891</v>
       </c>
     </row>
   </sheetData>
